--- a/Marketing/umass.roomme.xlsx
+++ b/Marketing/umass.roomme.xlsx
@@ -702,7 +702,7 @@
         </is>
       </c>
       <c r="B27" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="28">
@@ -712,7 +712,7 @@
         </is>
       </c>
       <c r="B28" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="29">
@@ -722,7 +722,7 @@
         </is>
       </c>
       <c r="B29" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="30">
@@ -732,7 +732,7 @@
         </is>
       </c>
       <c r="B30" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="31">
@@ -742,7 +742,7 @@
         </is>
       </c>
       <c r="B31" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="32">
@@ -752,7 +752,7 @@
         </is>
       </c>
       <c r="B32" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="33">
@@ -762,7 +762,7 @@
         </is>
       </c>
       <c r="B33" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="34">
@@ -772,7 +772,7 @@
         </is>
       </c>
       <c r="B34" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="35">
@@ -782,7 +782,7 @@
         </is>
       </c>
       <c r="B35" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="36">
@@ -792,7 +792,7 @@
         </is>
       </c>
       <c r="B36" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="37">
@@ -802,7 +802,7 @@
         </is>
       </c>
       <c r="B37" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="38">
@@ -812,7 +812,7 @@
         </is>
       </c>
       <c r="B38" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="39">
@@ -822,7 +822,7 @@
         </is>
       </c>
       <c r="B39" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="40">
@@ -832,7 +832,7 @@
         </is>
       </c>
       <c r="B40" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="41">
@@ -842,7 +842,7 @@
         </is>
       </c>
       <c r="B41" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="42">
@@ -852,7 +852,7 @@
         </is>
       </c>
       <c r="B42" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="43">
@@ -862,7 +862,7 @@
         </is>
       </c>
       <c r="B43" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="44">
@@ -872,7 +872,7 @@
         </is>
       </c>
       <c r="B44" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="45">
@@ -882,7 +882,7 @@
         </is>
       </c>
       <c r="B45" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="46">
@@ -892,7 +892,7 @@
         </is>
       </c>
       <c r="B46" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="47">

--- a/Marketing/umass.roomme.xlsx
+++ b/Marketing/umass.roomme.xlsx
@@ -902,7 +902,7 @@
         </is>
       </c>
       <c r="B47" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="48">
@@ -912,7 +912,7 @@
         </is>
       </c>
       <c r="B48" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="49">
@@ -922,7 +922,7 @@
         </is>
       </c>
       <c r="B49" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="50">
@@ -932,7 +932,7 @@
         </is>
       </c>
       <c r="B50" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="51">
@@ -942,7 +942,7 @@
         </is>
       </c>
       <c r="B51" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="52">
@@ -952,7 +952,7 @@
         </is>
       </c>
       <c r="B52" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="53">
@@ -962,7 +962,7 @@
         </is>
       </c>
       <c r="B53" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="54">
@@ -972,7 +972,7 @@
         </is>
       </c>
       <c r="B54" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="55">
@@ -982,7 +982,7 @@
         </is>
       </c>
       <c r="B55" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="56">
@@ -992,7 +992,7 @@
         </is>
       </c>
       <c r="B56" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="57">
@@ -1002,7 +1002,7 @@
         </is>
       </c>
       <c r="B57" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="58">
@@ -1012,7 +1012,7 @@
         </is>
       </c>
       <c r="B58" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="59">
@@ -1022,7 +1022,7 @@
         </is>
       </c>
       <c r="B59" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="60">
@@ -1032,7 +1032,7 @@
         </is>
       </c>
       <c r="B60" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="61">
@@ -1042,7 +1042,7 @@
         </is>
       </c>
       <c r="B61" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="62">
@@ -1052,7 +1052,7 @@
         </is>
       </c>
       <c r="B62" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="63">
@@ -1062,7 +1062,7 @@
         </is>
       </c>
       <c r="B63" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="64">
@@ -1072,7 +1072,7 @@
         </is>
       </c>
       <c r="B64" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="65">
@@ -1082,7 +1082,7 @@
         </is>
       </c>
       <c r="B65" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="66">
@@ -1092,7 +1092,7 @@
         </is>
       </c>
       <c r="B66" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="67">
@@ -1102,7 +1102,7 @@
         </is>
       </c>
       <c r="B67" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="68">
@@ -1112,7 +1112,7 @@
         </is>
       </c>
       <c r="B68" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="69">
@@ -1122,7 +1122,7 @@
         </is>
       </c>
       <c r="B69" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="70">
@@ -1132,7 +1132,7 @@
         </is>
       </c>
       <c r="B70" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="71">
@@ -1142,7 +1142,7 @@
         </is>
       </c>
       <c r="B71" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="72">
@@ -1152,7 +1152,7 @@
         </is>
       </c>
       <c r="B72" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="73">
@@ -1162,7 +1162,7 @@
         </is>
       </c>
       <c r="B73" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="74">
@@ -1172,7 +1172,7 @@
         </is>
       </c>
       <c r="B74" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="75">
@@ -1182,7 +1182,7 @@
         </is>
       </c>
       <c r="B75" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="76">
@@ -1192,7 +1192,7 @@
         </is>
       </c>
       <c r="B76" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="77">
@@ -1202,7 +1202,7 @@
         </is>
       </c>
       <c r="B77" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="78">
@@ -1212,7 +1212,7 @@
         </is>
       </c>
       <c r="B78" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="79">
@@ -1222,7 +1222,7 @@
         </is>
       </c>
       <c r="B79" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="80">
@@ -1232,7 +1232,7 @@
         </is>
       </c>
       <c r="B80" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="81">
@@ -1242,7 +1242,7 @@
         </is>
       </c>
       <c r="B81" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="82">
@@ -1252,7 +1252,7 @@
         </is>
       </c>
       <c r="B82" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="83">
@@ -1262,7 +1262,7 @@
         </is>
       </c>
       <c r="B83" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="84">
@@ -1272,7 +1272,7 @@
         </is>
       </c>
       <c r="B84" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="85">
@@ -1282,7 +1282,7 @@
         </is>
       </c>
       <c r="B85" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="86">
@@ -1292,7 +1292,7 @@
         </is>
       </c>
       <c r="B86" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="87">

--- a/Marketing/umass.roomme.xlsx
+++ b/Marketing/umass.roomme.xlsx
@@ -1302,7 +1302,7 @@
         </is>
       </c>
       <c r="B87" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="88">
@@ -1312,7 +1312,7 @@
         </is>
       </c>
       <c r="B88" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="89">
@@ -1322,7 +1322,7 @@
         </is>
       </c>
       <c r="B89" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="90">
@@ -1332,7 +1332,7 @@
         </is>
       </c>
       <c r="B90" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="91">
@@ -1342,7 +1342,7 @@
         </is>
       </c>
       <c r="B91" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="92">
@@ -1352,7 +1352,7 @@
         </is>
       </c>
       <c r="B92" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="93">
@@ -1362,7 +1362,7 @@
         </is>
       </c>
       <c r="B93" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="94">
@@ -1372,7 +1372,7 @@
         </is>
       </c>
       <c r="B94" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="95">
@@ -1382,7 +1382,7 @@
         </is>
       </c>
       <c r="B95" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="96">
@@ -1392,7 +1392,7 @@
         </is>
       </c>
       <c r="B96" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="97">
@@ -1402,7 +1402,7 @@
         </is>
       </c>
       <c r="B97" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="98">
@@ -1412,7 +1412,7 @@
         </is>
       </c>
       <c r="B98" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="99">
@@ -1422,7 +1422,7 @@
         </is>
       </c>
       <c r="B99" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="100">
@@ -1432,7 +1432,7 @@
         </is>
       </c>
       <c r="B100" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="101">
@@ -1442,7 +1442,7 @@
         </is>
       </c>
       <c r="B101" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="102">
@@ -1452,7 +1452,7 @@
         </is>
       </c>
       <c r="B102" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="103">
@@ -1462,7 +1462,7 @@
         </is>
       </c>
       <c r="B103" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="104">
@@ -1472,7 +1472,7 @@
         </is>
       </c>
       <c r="B104" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="105">
@@ -1482,7 +1482,7 @@
         </is>
       </c>
       <c r="B105" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="106">
@@ -1492,7 +1492,7 @@
         </is>
       </c>
       <c r="B106" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="107">
@@ -1502,7 +1502,7 @@
         </is>
       </c>
       <c r="B107" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="108">
@@ -1512,7 +1512,7 @@
         </is>
       </c>
       <c r="B108" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="109">
@@ -1522,7 +1522,7 @@
         </is>
       </c>
       <c r="B109" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="110">
@@ -1532,7 +1532,7 @@
         </is>
       </c>
       <c r="B110" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="111">
@@ -1542,7 +1542,7 @@
         </is>
       </c>
       <c r="B111" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="112">
@@ -1552,7 +1552,7 @@
         </is>
       </c>
       <c r="B112" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="113">
@@ -1562,7 +1562,7 @@
         </is>
       </c>
       <c r="B113" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="114">
@@ -1572,7 +1572,7 @@
         </is>
       </c>
       <c r="B114" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="115">
@@ -1582,7 +1582,7 @@
         </is>
       </c>
       <c r="B115" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="116">
@@ -1592,7 +1592,7 @@
         </is>
       </c>
       <c r="B116" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="117">
@@ -1602,7 +1602,7 @@
         </is>
       </c>
       <c r="B117" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="118">
@@ -1612,7 +1612,7 @@
         </is>
       </c>
       <c r="B118" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="119">
@@ -1622,7 +1622,7 @@
         </is>
       </c>
       <c r="B119" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="120">
@@ -1632,7 +1632,7 @@
         </is>
       </c>
       <c r="B120" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="121">
@@ -1642,7 +1642,7 @@
         </is>
       </c>
       <c r="B121" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="122">
@@ -1652,7 +1652,7 @@
         </is>
       </c>
       <c r="B122" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="123">
@@ -1662,7 +1662,7 @@
         </is>
       </c>
       <c r="B123" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="124">
@@ -1672,7 +1672,7 @@
         </is>
       </c>
       <c r="B124" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="125">
@@ -1682,7 +1682,7 @@
         </is>
       </c>
       <c r="B125" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="126">
@@ -1692,7 +1692,7 @@
         </is>
       </c>
       <c r="B126" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="127">
@@ -1702,7 +1702,7 @@
         </is>
       </c>
       <c r="B127" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="128">
@@ -1712,7 +1712,7 @@
         </is>
       </c>
       <c r="B128" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="129">
@@ -1722,7 +1722,7 @@
         </is>
       </c>
       <c r="B129" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="130">
@@ -1732,7 +1732,7 @@
         </is>
       </c>
       <c r="B130" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="131">
@@ -1742,7 +1742,7 @@
         </is>
       </c>
       <c r="B131" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="132">
@@ -1752,7 +1752,7 @@
         </is>
       </c>
       <c r="B132" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="133">
@@ -1762,7 +1762,7 @@
         </is>
       </c>
       <c r="B133" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="134">
@@ -1772,7 +1772,7 @@
         </is>
       </c>
       <c r="B134" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="135">
@@ -1782,7 +1782,7 @@
         </is>
       </c>
       <c r="B135" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="136">
@@ -1792,7 +1792,7 @@
         </is>
       </c>
       <c r="B136" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="137">
@@ -1802,7 +1802,7 @@
         </is>
       </c>
       <c r="B137" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="138">
@@ -1812,7 +1812,7 @@
         </is>
       </c>
       <c r="B138" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="139">
@@ -1822,7 +1822,7 @@
         </is>
       </c>
       <c r="B139" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="140">
@@ -1832,7 +1832,7 @@
         </is>
       </c>
       <c r="B140" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="141">
@@ -1842,7 +1842,7 @@
         </is>
       </c>
       <c r="B141" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="142">
@@ -1852,7 +1852,7 @@
         </is>
       </c>
       <c r="B142" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="143">
@@ -1862,7 +1862,7 @@
         </is>
       </c>
       <c r="B143" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="144">
@@ -1872,7 +1872,7 @@
         </is>
       </c>
       <c r="B144" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="145">
@@ -1882,7 +1882,7 @@
         </is>
       </c>
       <c r="B145" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="146">
@@ -1892,7 +1892,7 @@
         </is>
       </c>
       <c r="B146" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="147">
@@ -1902,7 +1902,7 @@
         </is>
       </c>
       <c r="B147" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="148">
@@ -1912,7 +1912,7 @@
         </is>
       </c>
       <c r="B148" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="149">
@@ -1922,7 +1922,7 @@
         </is>
       </c>
       <c r="B149" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="150">
@@ -1932,7 +1932,7 @@
         </is>
       </c>
       <c r="B150" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="151">
@@ -1942,7 +1942,7 @@
         </is>
       </c>
       <c r="B151" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="152">
@@ -1952,7 +1952,7 @@
         </is>
       </c>
       <c r="B152" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="153">
@@ -1962,7 +1962,7 @@
         </is>
       </c>
       <c r="B153" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="154">
@@ -1972,7 +1972,7 @@
         </is>
       </c>
       <c r="B154" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="155">
@@ -1982,7 +1982,7 @@
         </is>
       </c>
       <c r="B155" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="156">
@@ -1992,7 +1992,7 @@
         </is>
       </c>
       <c r="B156" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="157">
@@ -2002,7 +2002,7 @@
         </is>
       </c>
       <c r="B157" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="158">
@@ -2012,7 +2012,7 @@
         </is>
       </c>
       <c r="B158" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="159">
@@ -2022,7 +2022,7 @@
         </is>
       </c>
       <c r="B159" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="160">
@@ -2032,7 +2032,7 @@
         </is>
       </c>
       <c r="B160" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="161">
@@ -2042,7 +2042,7 @@
         </is>
       </c>
       <c r="B161" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="162">
@@ -2052,7 +2052,7 @@
         </is>
       </c>
       <c r="B162" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="163">
@@ -2062,7 +2062,7 @@
         </is>
       </c>
       <c r="B163" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="164">
@@ -2072,7 +2072,7 @@
         </is>
       </c>
       <c r="B164" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="165">
@@ -2082,7 +2082,7 @@
         </is>
       </c>
       <c r="B165" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="166">
@@ -2092,7 +2092,7 @@
         </is>
       </c>
       <c r="B166" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="167">
@@ -2102,7 +2102,7 @@
         </is>
       </c>
       <c r="B167" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="168">
@@ -2112,7 +2112,7 @@
         </is>
       </c>
       <c r="B168" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="169">
@@ -2122,7 +2122,7 @@
         </is>
       </c>
       <c r="B169" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="170">
@@ -2132,7 +2132,7 @@
         </is>
       </c>
       <c r="B170" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="171">
@@ -2142,7 +2142,7 @@
         </is>
       </c>
       <c r="B171" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="172">
@@ -2152,7 +2152,7 @@
         </is>
       </c>
       <c r="B172" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="173">
@@ -2162,7 +2162,7 @@
         </is>
       </c>
       <c r="B173" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="174">
@@ -2172,7 +2172,7 @@
         </is>
       </c>
       <c r="B174" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="175">
@@ -2182,7 +2182,7 @@
         </is>
       </c>
       <c r="B175" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="176">
@@ -2192,7 +2192,7 @@
         </is>
       </c>
       <c r="B176" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="177">
@@ -2202,7 +2202,7 @@
         </is>
       </c>
       <c r="B177" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="178">
@@ -2212,7 +2212,7 @@
         </is>
       </c>
       <c r="B178" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="179">
@@ -2222,7 +2222,7 @@
         </is>
       </c>
       <c r="B179" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="180">
@@ -2232,7 +2232,7 @@
         </is>
       </c>
       <c r="B180" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="181">
@@ -2242,7 +2242,7 @@
         </is>
       </c>
       <c r="B181" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="182">
@@ -2252,7 +2252,7 @@
         </is>
       </c>
       <c r="B182" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="183">
@@ -2262,7 +2262,7 @@
         </is>
       </c>
       <c r="B183" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="184">
@@ -2272,7 +2272,7 @@
         </is>
       </c>
       <c r="B184" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="185">
@@ -2282,7 +2282,7 @@
         </is>
       </c>
       <c r="B185" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="186">
@@ -2292,7 +2292,7 @@
         </is>
       </c>
       <c r="B186" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="187">
@@ -2302,7 +2302,7 @@
         </is>
       </c>
       <c r="B187" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="188">
@@ -2312,7 +2312,7 @@
         </is>
       </c>
       <c r="B188" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="189">
@@ -2322,7 +2322,7 @@
         </is>
       </c>
       <c r="B189" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="190">
@@ -2332,7 +2332,7 @@
         </is>
       </c>
       <c r="B190" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="191">
@@ -2342,7 +2342,7 @@
         </is>
       </c>
       <c r="B191" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="192">
@@ -2352,7 +2352,7 @@
         </is>
       </c>
       <c r="B192" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="193">
@@ -2362,7 +2362,7 @@
         </is>
       </c>
       <c r="B193" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="194">
@@ -2372,7 +2372,7 @@
         </is>
       </c>
       <c r="B194" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="195">
@@ -2382,7 +2382,7 @@
         </is>
       </c>
       <c r="B195" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="196">
@@ -2392,7 +2392,7 @@
         </is>
       </c>
       <c r="B196" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="197">
@@ -2402,7 +2402,7 @@
         </is>
       </c>
       <c r="B197" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="198">
@@ -2412,7 +2412,7 @@
         </is>
       </c>
       <c r="B198" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="199">
@@ -2422,7 +2422,7 @@
         </is>
       </c>
       <c r="B199" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="200">
@@ -2432,7 +2432,7 @@
         </is>
       </c>
       <c r="B200" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="201">
@@ -2442,7 +2442,7 @@
         </is>
       </c>
       <c r="B201" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="202">
@@ -2452,7 +2452,7 @@
         </is>
       </c>
       <c r="B202" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="203">
@@ -2462,7 +2462,7 @@
         </is>
       </c>
       <c r="B203" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="204">
@@ -2472,7 +2472,7 @@
         </is>
       </c>
       <c r="B204" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="205">
@@ -2482,7 +2482,7 @@
         </is>
       </c>
       <c r="B205" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="206">
@@ -2492,7 +2492,7 @@
         </is>
       </c>
       <c r="B206" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="207">
@@ -2502,7 +2502,7 @@
         </is>
       </c>
       <c r="B207" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="208">
@@ -2512,7 +2512,7 @@
         </is>
       </c>
       <c r="B208" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="209">
@@ -2522,7 +2522,7 @@
         </is>
       </c>
       <c r="B209" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="210">
@@ -2532,7 +2532,7 @@
         </is>
       </c>
       <c r="B210" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="211">
@@ -2542,7 +2542,7 @@
         </is>
       </c>
       <c r="B211" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="212">
@@ -2552,7 +2552,7 @@
         </is>
       </c>
       <c r="B212" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="213">
@@ -2562,7 +2562,7 @@
         </is>
       </c>
       <c r="B213" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="214">
@@ -2572,7 +2572,7 @@
         </is>
       </c>
       <c r="B214" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="215">
@@ -2582,7 +2582,7 @@
         </is>
       </c>
       <c r="B215" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="216">
@@ -2592,7 +2592,7 @@
         </is>
       </c>
       <c r="B216" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="217">
@@ -2602,7 +2602,7 @@
         </is>
       </c>
       <c r="B217" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="218">
@@ -2612,7 +2612,7 @@
         </is>
       </c>
       <c r="B218" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="219">
@@ -2622,7 +2622,7 @@
         </is>
       </c>
       <c r="B219" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="220">
@@ -2632,7 +2632,7 @@
         </is>
       </c>
       <c r="B220" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="221">
@@ -2642,7 +2642,7 @@
         </is>
       </c>
       <c r="B221" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="222">
@@ -2652,7 +2652,7 @@
         </is>
       </c>
       <c r="B222" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="223">
@@ -2662,7 +2662,7 @@
         </is>
       </c>
       <c r="B223" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="224">
@@ -2672,7 +2672,7 @@
         </is>
       </c>
       <c r="B224" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="225">
@@ -2682,7 +2682,7 @@
         </is>
       </c>
       <c r="B225" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="226">
@@ -2692,7 +2692,7 @@
         </is>
       </c>
       <c r="B226" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="227">
@@ -2702,7 +2702,7 @@
         </is>
       </c>
       <c r="B227" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="228">
@@ -2712,7 +2712,7 @@
         </is>
       </c>
       <c r="B228" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="229">
@@ -2722,7 +2722,7 @@
         </is>
       </c>
       <c r="B229" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="230">
@@ -2732,7 +2732,7 @@
         </is>
       </c>
       <c r="B230" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="231">
@@ -2742,7 +2742,7 @@
         </is>
       </c>
       <c r="B231" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="232">
@@ -2752,7 +2752,7 @@
         </is>
       </c>
       <c r="B232" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="233">
@@ -2762,7 +2762,7 @@
         </is>
       </c>
       <c r="B233" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="234">
@@ -2772,7 +2772,7 @@
         </is>
       </c>
       <c r="B234" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="235">
@@ -2782,7 +2782,7 @@
         </is>
       </c>
       <c r="B235" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="236">
@@ -2792,7 +2792,7 @@
         </is>
       </c>
       <c r="B236" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="237">
@@ -2802,7 +2802,7 @@
         </is>
       </c>
       <c r="B237" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="238">
@@ -2812,7 +2812,7 @@
         </is>
       </c>
       <c r="B238" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="239">
@@ -2822,7 +2822,7 @@
         </is>
       </c>
       <c r="B239" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="240">
@@ -2832,7 +2832,7 @@
         </is>
       </c>
       <c r="B240" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="241">
@@ -2842,7 +2842,7 @@
         </is>
       </c>
       <c r="B241" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="242">
@@ -2852,7 +2852,7 @@
         </is>
       </c>
       <c r="B242" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="243">
@@ -2862,7 +2862,7 @@
         </is>
       </c>
       <c r="B243" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="244">
@@ -2872,7 +2872,7 @@
         </is>
       </c>
       <c r="B244" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="245">
@@ -2882,7 +2882,7 @@
         </is>
       </c>
       <c r="B245" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="246">
@@ -2892,7 +2892,7 @@
         </is>
       </c>
       <c r="B246" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="247">

--- a/Marketing/umass.roomme.xlsx
+++ b/Marketing/umass.roomme.xlsx
@@ -2452,7 +2452,7 @@
         </is>
       </c>
       <c r="B202" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="203">
@@ -2462,7 +2462,7 @@
         </is>
       </c>
       <c r="B203" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="204">
@@ -2472,7 +2472,7 @@
         </is>
       </c>
       <c r="B204" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="205">
@@ -2482,7 +2482,7 @@
         </is>
       </c>
       <c r="B205" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="206">
@@ -2492,7 +2492,7 @@
         </is>
       </c>
       <c r="B206" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="207">
@@ -2502,7 +2502,7 @@
         </is>
       </c>
       <c r="B207" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="208">
@@ -2512,7 +2512,7 @@
         </is>
       </c>
       <c r="B208" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="209">
@@ -2522,7 +2522,7 @@
         </is>
       </c>
       <c r="B209" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="210">
@@ -2532,7 +2532,7 @@
         </is>
       </c>
       <c r="B210" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="211">
@@ -2542,7 +2542,7 @@
         </is>
       </c>
       <c r="B211" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="212">
@@ -2552,7 +2552,7 @@
         </is>
       </c>
       <c r="B212" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="213">
@@ -2562,7 +2562,7 @@
         </is>
       </c>
       <c r="B213" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="214">
@@ -2572,7 +2572,7 @@
         </is>
       </c>
       <c r="B214" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="215">
@@ -2582,7 +2582,7 @@
         </is>
       </c>
       <c r="B215" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="216">
@@ -2592,7 +2592,7 @@
         </is>
       </c>
       <c r="B216" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="217">
@@ -2602,7 +2602,7 @@
         </is>
       </c>
       <c r="B217" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="218">
@@ -2612,7 +2612,7 @@
         </is>
       </c>
       <c r="B218" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="219">
@@ -2622,7 +2622,7 @@
         </is>
       </c>
       <c r="B219" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="220">
@@ -2632,7 +2632,7 @@
         </is>
       </c>
       <c r="B220" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="221">
@@ -2642,7 +2642,7 @@
         </is>
       </c>
       <c r="B221" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="222">
@@ -2652,7 +2652,7 @@
         </is>
       </c>
       <c r="B222" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="223">
@@ -2662,7 +2662,7 @@
         </is>
       </c>
       <c r="B223" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="224">
@@ -2672,7 +2672,7 @@
         </is>
       </c>
       <c r="B224" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="225">
@@ -2682,7 +2682,7 @@
         </is>
       </c>
       <c r="B225" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="226">
@@ -2692,7 +2692,7 @@
         </is>
       </c>
       <c r="B226" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="227">
@@ -2702,7 +2702,7 @@
         </is>
       </c>
       <c r="B227" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="228">
@@ -2712,7 +2712,7 @@
         </is>
       </c>
       <c r="B228" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="229">
@@ -2722,7 +2722,7 @@
         </is>
       </c>
       <c r="B229" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="230">
@@ -2732,7 +2732,7 @@
         </is>
       </c>
       <c r="B230" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="231">
@@ -2742,7 +2742,7 @@
         </is>
       </c>
       <c r="B231" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="232">
@@ -2752,7 +2752,7 @@
         </is>
       </c>
       <c r="B232" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="233">
@@ -2762,7 +2762,7 @@
         </is>
       </c>
       <c r="B233" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="234">
@@ -2772,7 +2772,7 @@
         </is>
       </c>
       <c r="B234" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="235">
@@ -2782,7 +2782,7 @@
         </is>
       </c>
       <c r="B235" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="236">
@@ -2792,7 +2792,7 @@
         </is>
       </c>
       <c r="B236" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="237">
@@ -2802,7 +2802,7 @@
         </is>
       </c>
       <c r="B237" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="238">
@@ -2812,7 +2812,7 @@
         </is>
       </c>
       <c r="B238" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="239">
@@ -2822,7 +2822,7 @@
         </is>
       </c>
       <c r="B239" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="240">
@@ -2832,7 +2832,7 @@
         </is>
       </c>
       <c r="B240" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="241">
@@ -2842,7 +2842,7 @@
         </is>
       </c>
       <c r="B241" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="242">
@@ -2852,7 +2852,7 @@
         </is>
       </c>
       <c r="B242" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="243">
@@ -2862,7 +2862,7 @@
         </is>
       </c>
       <c r="B243" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="244">
@@ -2872,7 +2872,7 @@
         </is>
       </c>
       <c r="B244" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="245">
@@ -2882,7 +2882,7 @@
         </is>
       </c>
       <c r="B245" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="246">
@@ -2892,7 +2892,7 @@
         </is>
       </c>
       <c r="B246" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="247">
@@ -2902,7 +2902,7 @@
         </is>
       </c>
       <c r="B247" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="248">
@@ -2912,7 +2912,7 @@
         </is>
       </c>
       <c r="B248" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="249">
@@ -2922,7 +2922,7 @@
         </is>
       </c>
       <c r="B249" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="250">
@@ -2932,7 +2932,7 @@
         </is>
       </c>
       <c r="B250" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="251">
@@ -2942,7 +2942,7 @@
         </is>
       </c>
       <c r="B251" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="252">
@@ -2952,7 +2952,7 @@
         </is>
       </c>
       <c r="B252" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="253">
@@ -2962,7 +2962,7 @@
         </is>
       </c>
       <c r="B253" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="254">
@@ -2972,7 +2972,7 @@
         </is>
       </c>
       <c r="B254" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="255">
@@ -2982,7 +2982,7 @@
         </is>
       </c>
       <c r="B255" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="256">
@@ -2992,7 +2992,7 @@
         </is>
       </c>
       <c r="B256" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="257">
@@ -3002,7 +3002,7 @@
         </is>
       </c>
       <c r="B257" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="258">
@@ -3012,7 +3012,7 @@
         </is>
       </c>
       <c r="B258" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="259">
@@ -3022,7 +3022,7 @@
         </is>
       </c>
       <c r="B259" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="260">
@@ -3032,7 +3032,7 @@
         </is>
       </c>
       <c r="B260" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="261">
@@ -3042,7 +3042,7 @@
         </is>
       </c>
       <c r="B261" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="262">
@@ -3052,7 +3052,7 @@
         </is>
       </c>
       <c r="B262" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="263">
@@ -3062,7 +3062,7 @@
         </is>
       </c>
       <c r="B263" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="264">
@@ -3072,7 +3072,7 @@
         </is>
       </c>
       <c r="B264" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="265">
@@ -3082,7 +3082,7 @@
         </is>
       </c>
       <c r="B265" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="266">
@@ -3092,7 +3092,7 @@
         </is>
       </c>
       <c r="B266" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="267">
@@ -3102,7 +3102,7 @@
         </is>
       </c>
       <c r="B267" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="268">
@@ -3112,7 +3112,7 @@
         </is>
       </c>
       <c r="B268" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="269">
@@ -3122,7 +3122,7 @@
         </is>
       </c>
       <c r="B269" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="270">
@@ -3132,7 +3132,7 @@
         </is>
       </c>
       <c r="B270" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="271">
@@ -3142,7 +3142,7 @@
         </is>
       </c>
       <c r="B271" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="272">
@@ -3152,7 +3152,7 @@
         </is>
       </c>
       <c r="B272" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="273">
@@ -3162,7 +3162,7 @@
         </is>
       </c>
       <c r="B273" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="274">
@@ -3172,7 +3172,7 @@
         </is>
       </c>
       <c r="B274" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="275">
@@ -3182,7 +3182,7 @@
         </is>
       </c>
       <c r="B275" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="276">
@@ -3192,7 +3192,7 @@
         </is>
       </c>
       <c r="B276" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="277">
@@ -3202,7 +3202,7 @@
         </is>
       </c>
       <c r="B277" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="278">
@@ -3212,7 +3212,7 @@
         </is>
       </c>
       <c r="B278" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="279">
@@ -3222,7 +3222,7 @@
         </is>
       </c>
       <c r="B279" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="280">
@@ -3232,7 +3232,7 @@
         </is>
       </c>
       <c r="B280" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="281">
@@ -3242,7 +3242,7 @@
         </is>
       </c>
       <c r="B281" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="282">
@@ -3252,7 +3252,7 @@
         </is>
       </c>
       <c r="B282" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="283">
@@ -3262,7 +3262,7 @@
         </is>
       </c>
       <c r="B283" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="284">
@@ -3272,7 +3272,7 @@
         </is>
       </c>
       <c r="B284" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="285">
@@ -3282,7 +3282,7 @@
         </is>
       </c>
       <c r="B285" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="286">
@@ -3292,7 +3292,7 @@
         </is>
       </c>
       <c r="B286" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="287">
@@ -3302,7 +3302,7 @@
         </is>
       </c>
       <c r="B287" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="288">
@@ -3312,7 +3312,7 @@
         </is>
       </c>
       <c r="B288" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="289">
@@ -3322,7 +3322,7 @@
         </is>
       </c>
       <c r="B289" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="290">
@@ -3332,7 +3332,7 @@
         </is>
       </c>
       <c r="B290" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="291">
@@ -3342,7 +3342,7 @@
         </is>
       </c>
       <c r="B291" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="292">
@@ -3352,7 +3352,7 @@
         </is>
       </c>
       <c r="B292" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="293">
@@ -3362,7 +3362,7 @@
         </is>
       </c>
       <c r="B293" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="294">
@@ -3372,7 +3372,7 @@
         </is>
       </c>
       <c r="B294" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="295">
@@ -3382,7 +3382,7 @@
         </is>
       </c>
       <c r="B295" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="296">
@@ -3392,7 +3392,7 @@
         </is>
       </c>
       <c r="B296" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="297">
@@ -3402,7 +3402,7 @@
         </is>
       </c>
       <c r="B297" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="298">
@@ -3412,7 +3412,7 @@
         </is>
       </c>
       <c r="B298" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="299">
@@ -3422,7 +3422,7 @@
         </is>
       </c>
       <c r="B299" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="300">
@@ -3432,7 +3432,7 @@
         </is>
       </c>
       <c r="B300" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="301">
@@ -3442,7 +3442,7 @@
         </is>
       </c>
       <c r="B301" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="302">
@@ -3452,7 +3452,7 @@
         </is>
       </c>
       <c r="B302" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="303">
@@ -3462,7 +3462,7 @@
         </is>
       </c>
       <c r="B303" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="304">
@@ -3472,7 +3472,7 @@
         </is>
       </c>
       <c r="B304" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="305">
@@ -3482,7 +3482,7 @@
         </is>
       </c>
       <c r="B305" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="306">
@@ -3492,7 +3492,7 @@
         </is>
       </c>
       <c r="B306" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="307">
@@ -3502,7 +3502,7 @@
         </is>
       </c>
       <c r="B307" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="308">
@@ -3512,7 +3512,7 @@
         </is>
       </c>
       <c r="B308" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="309">
@@ -3522,7 +3522,7 @@
         </is>
       </c>
       <c r="B309" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="310">
@@ -3532,7 +3532,7 @@
         </is>
       </c>
       <c r="B310" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="311">
@@ -3542,7 +3542,7 @@
         </is>
       </c>
       <c r="B311" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="312">
@@ -3552,7 +3552,7 @@
         </is>
       </c>
       <c r="B312" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="313">
@@ -3562,7 +3562,7 @@
         </is>
       </c>
       <c r="B313" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="314">
@@ -3572,7 +3572,7 @@
         </is>
       </c>
       <c r="B314" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="315">
@@ -3582,7 +3582,7 @@
         </is>
       </c>
       <c r="B315" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="316">
@@ -3592,7 +3592,7 @@
         </is>
       </c>
       <c r="B316" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="317">
@@ -3602,7 +3602,7 @@
         </is>
       </c>
       <c r="B317" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="318">
@@ -3612,7 +3612,7 @@
         </is>
       </c>
       <c r="B318" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="319">
@@ -3622,7 +3622,7 @@
         </is>
       </c>
       <c r="B319" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="320">
@@ -3632,7 +3632,7 @@
         </is>
       </c>
       <c r="B320" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="321">
@@ -3642,7 +3642,7 @@
         </is>
       </c>
       <c r="B321" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="322">
@@ -3652,7 +3652,7 @@
         </is>
       </c>
       <c r="B322" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="323">
@@ -3662,7 +3662,7 @@
         </is>
       </c>
       <c r="B323" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="324">
@@ -3672,7 +3672,7 @@
         </is>
       </c>
       <c r="B324" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="325">
@@ -3682,7 +3682,7 @@
         </is>
       </c>
       <c r="B325" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="326">
@@ -3692,7 +3692,7 @@
         </is>
       </c>
       <c r="B326" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="327">
@@ -3702,7 +3702,7 @@
         </is>
       </c>
       <c r="B327" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="328">
@@ -3712,7 +3712,7 @@
         </is>
       </c>
       <c r="B328" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="329">
@@ -3722,7 +3722,7 @@
         </is>
       </c>
       <c r="B329" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="330">
@@ -3732,7 +3732,7 @@
         </is>
       </c>
       <c r="B330" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="331">
@@ -3742,7 +3742,7 @@
         </is>
       </c>
       <c r="B331" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="332">
@@ -3752,7 +3752,7 @@
         </is>
       </c>
       <c r="B332" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="333">
@@ -3762,7 +3762,7 @@
         </is>
       </c>
       <c r="B333" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="334">
@@ -3772,7 +3772,7 @@
         </is>
       </c>
       <c r="B334" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="335">
@@ -3782,7 +3782,7 @@
         </is>
       </c>
       <c r="B335" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="336">
@@ -3792,7 +3792,7 @@
         </is>
       </c>
       <c r="B336" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="337">
@@ -3802,7 +3802,7 @@
         </is>
       </c>
       <c r="B337" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="338">
@@ -3812,7 +3812,7 @@
         </is>
       </c>
       <c r="B338" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="339">
@@ -3822,7 +3822,7 @@
         </is>
       </c>
       <c r="B339" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="340">
@@ -3832,7 +3832,7 @@
         </is>
       </c>
       <c r="B340" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="341">
@@ -3842,7 +3842,7 @@
         </is>
       </c>
       <c r="B341" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="342">

--- a/Marketing/umass.roomme.xlsx
+++ b/Marketing/umass.roomme.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:B447"/>
+  <dimension ref="A1:B387"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -448,7 +448,7 @@
     <row r="2">
       <c r="A2" t="inlineStr">
         <is>
-          <t>noelash12</t>
+          <t>tombalicki22</t>
         </is>
       </c>
       <c r="B2" t="b">
@@ -458,7 +458,7 @@
     <row r="3">
       <c r="A3" t="inlineStr">
         <is>
-          <t>shahyank_</t>
+          <t>will_wismar</t>
         </is>
       </c>
       <c r="B3" t="b">
@@ -468,7 +468,7 @@
     <row r="4">
       <c r="A4" t="inlineStr">
         <is>
-          <t>ucm_2028</t>
+          <t>ritik__arora</t>
         </is>
       </c>
       <c r="B4" t="b">
@@ -478,7 +478,7 @@
     <row r="5">
       <c r="A5" t="inlineStr">
         <is>
-          <t>kellancm</t>
+          <t>avaahorsmann</t>
         </is>
       </c>
       <c r="B5" t="b">
@@ -488,7 +488,7 @@
     <row r="6">
       <c r="A6" t="inlineStr">
         <is>
-          <t>harrisonnathan_24</t>
+          <t>simply_susies</t>
         </is>
       </c>
       <c r="B6" t="b">
@@ -498,7 +498,7 @@
     <row r="7">
       <c r="A7" t="inlineStr">
         <is>
-          <t>kayleyfrederickss</t>
+          <t>kristi.debruin</t>
         </is>
       </c>
       <c r="B7" t="b">
@@ -508,7 +508,7 @@
     <row r="8">
       <c r="A8" t="inlineStr">
         <is>
-          <t>melanietolles</t>
+          <t>tricia.damato</t>
         </is>
       </c>
       <c r="B8" t="b">
@@ -518,7 +518,7 @@
     <row r="9">
       <c r="A9" t="inlineStr">
         <is>
-          <t>alyssa_hamilton04</t>
+          <t>emmmaconley</t>
         </is>
       </c>
       <c r="B9" t="b">
@@ -528,7 +528,7 @@
     <row r="10">
       <c r="A10" t="inlineStr">
         <is>
-          <t>lsamp_umass</t>
+          <t>akshathachelluri</t>
         </is>
       </c>
       <c r="B10" t="b">
@@ -538,7 +538,7 @@
     <row r="11">
       <c r="A11" t="inlineStr">
         <is>
-          <t>adaaaaam2005</t>
+          <t>masciajess</t>
         </is>
       </c>
       <c r="B11" t="b">
@@ -548,7 +548,7 @@
     <row r="12">
       <c r="A12" t="inlineStr">
         <is>
-          <t>alexapetullo_</t>
+          <t>jason_coates42195</t>
         </is>
       </c>
       <c r="B12" t="b">
@@ -558,7 +558,7 @@
     <row r="13">
       <c r="A13" t="inlineStr">
         <is>
-          <t>braeden__mcdonald</t>
+          <t>a.n.n_marie</t>
         </is>
       </c>
       <c r="B13" t="b">
@@ -568,7 +568,7 @@
     <row r="14">
       <c r="A14" t="inlineStr">
         <is>
-          <t>viorelpascale</t>
+          <t>adigangi256</t>
         </is>
       </c>
       <c r="B14" t="b">
@@ -578,7 +578,7 @@
     <row r="15">
       <c r="A15" t="inlineStr">
         <is>
-          <t>maddiedecesare</t>
+          <t>alexchiasson4</t>
         </is>
       </c>
       <c r="B15" t="b">
@@ -588,7 +588,7 @@
     <row r="16">
       <c r="A16" t="inlineStr">
         <is>
-          <t>liacullen03</t>
+          <t>peace.love.run.mama</t>
         </is>
       </c>
       <c r="B16" t="b">
@@ -598,7 +598,7 @@
     <row r="17">
       <c r="A17" t="inlineStr">
         <is>
-          <t>ambe_johnsonx34</t>
+          <t>umassamherstieee</t>
         </is>
       </c>
       <c r="B17" t="b">
@@ -608,7 +608,7 @@
     <row r="18">
       <c r="A18" t="inlineStr">
         <is>
-          <t>ntiruveedi</t>
+          <t>farshidhajir</t>
         </is>
       </c>
       <c r="B18" t="b">
@@ -618,7 +618,7 @@
     <row r="19">
       <c r="A19" t="inlineStr">
         <is>
-          <t>beckhamrebecca6</t>
+          <t>_aksharararara_</t>
         </is>
       </c>
       <c r="B19" t="b">
@@ -628,7 +628,7 @@
     <row r="20">
       <c r="A20" t="inlineStr">
         <is>
-          <t>harrecis_1</t>
+          <t>asabriss</t>
         </is>
       </c>
       <c r="B20" t="b">
@@ -638,7 +638,7 @@
     <row r="21">
       <c r="A21" t="inlineStr">
         <is>
-          <t>manny_baczewski</t>
+          <t>klsfalkowski</t>
         </is>
       </c>
       <c r="B21" t="b">
@@ -648,7 +648,7 @@
     <row r="22">
       <c r="A22" t="inlineStr">
         <is>
-          <t>ecebayalmaciiogluux</t>
+          <t>maddiespencer_</t>
         </is>
       </c>
       <c r="B22" t="b">
@@ -658,7 +658,7 @@
     <row r="23">
       <c r="A23" t="inlineStr">
         <is>
-          <t>hbolduc_</t>
+          <t>rbeedub20</t>
         </is>
       </c>
       <c r="B23" t="b">
@@ -668,7 +668,7 @@
     <row r="24">
       <c r="A24" t="inlineStr">
         <is>
-          <t>jessicali82</t>
+          <t>almohssenflicks</t>
         </is>
       </c>
       <c r="B24" t="b">
@@ -678,7 +678,7 @@
     <row r="25">
       <c r="A25" t="inlineStr">
         <is>
-          <t>hayley.lackie</t>
+          <t>umojabsu</t>
         </is>
       </c>
       <c r="B25" t="b">
@@ -688,7 +688,7 @@
     <row r="26">
       <c r="A26" t="inlineStr">
         <is>
-          <t>averyhayess</t>
+          <t>nbquinn</t>
         </is>
       </c>
       <c r="B26" t="b">
@@ -698,7 +698,7 @@
     <row r="27">
       <c r="A27" t="inlineStr">
         <is>
-          <t>priestess_iremide</t>
+          <t>cpv111</t>
         </is>
       </c>
       <c r="B27" t="b">
@@ -708,7 +708,7 @@
     <row r="28">
       <c r="A28" t="inlineStr">
         <is>
-          <t>davidp175</t>
+          <t>susanacatalana</t>
         </is>
       </c>
       <c r="B28" t="b">
@@ -718,7 +718,7 @@
     <row r="29">
       <c r="A29" t="inlineStr">
         <is>
-          <t>ryan_mechery</t>
+          <t>poornima_ksp</t>
         </is>
       </c>
       <c r="B29" t="b">
@@ -728,7 +728,7 @@
     <row r="30">
       <c r="A30" t="inlineStr">
         <is>
-          <t>dhwanee.patel</t>
+          <t>mclark8_</t>
         </is>
       </c>
       <c r="B30" t="b">
@@ -738,7 +738,7 @@
     <row r="31">
       <c r="A31" t="inlineStr">
         <is>
-          <t>sydneyp_0203</t>
+          <t>swerve.rrh</t>
         </is>
       </c>
       <c r="B31" t="b">
@@ -748,7 +748,7 @@
     <row r="32">
       <c r="A32" t="inlineStr">
         <is>
-          <t>danny.mo7</t>
+          <t>ashishah</t>
         </is>
       </c>
       <c r="B32" t="b">
@@ -758,7 +758,7 @@
     <row r="33">
       <c r="A33" t="inlineStr">
         <is>
-          <t>chiararuizzzz</t>
+          <t>beenunarang</t>
         </is>
       </c>
       <c r="B33" t="b">
@@ -768,7 +768,7 @@
     <row r="34">
       <c r="A34" t="inlineStr">
         <is>
-          <t>zachslavinsky</t>
+          <t>anushomanushak</t>
         </is>
       </c>
       <c r="B34" t="b">
@@ -778,7 +778,7 @@
     <row r="35">
       <c r="A35" t="inlineStr">
         <is>
-          <t>will.hood_</t>
+          <t>zaaberry</t>
         </is>
       </c>
       <c r="B35" t="b">
@@ -788,7 +788,7 @@
     <row r="36">
       <c r="A36" t="inlineStr">
         <is>
-          <t>warmwelcomebirth</t>
+          <t>dawnemf</t>
         </is>
       </c>
       <c r="B36" t="b">
@@ -798,7 +798,7 @@
     <row r="37">
       <c r="A37" t="inlineStr">
         <is>
-          <t>nveronis35</t>
+          <t>denise.elizabeth13</t>
         </is>
       </c>
       <c r="B37" t="b">
@@ -808,7 +808,7 @@
     <row r="38">
       <c r="A38" t="inlineStr">
         <is>
-          <t>johnburke_2003</t>
+          <t>scarlett_r_olivia</t>
         </is>
       </c>
       <c r="B38" t="b">
@@ -818,7 +818,7 @@
     <row r="39">
       <c r="A39" t="inlineStr">
         <is>
-          <t>sanj.subramanian</t>
+          <t>danab0521</t>
         </is>
       </c>
       <c r="B39" t="b">
@@ -828,7 +828,7 @@
     <row r="40">
       <c r="A40" t="inlineStr">
         <is>
-          <t>alexacederholm</t>
+          <t>umassphpc</t>
         </is>
       </c>
       <c r="B40" t="b">
@@ -838,7 +838,7 @@
     <row r="41">
       <c r="A41" t="inlineStr">
         <is>
-          <t>twilliams1105</t>
+          <t>sujata2602</t>
         </is>
       </c>
       <c r="B41" t="b">
@@ -848,7 +848,7 @@
     <row r="42">
       <c r="A42" t="inlineStr">
         <is>
-          <t>gabrielabondaryk1</t>
+          <t>egmatteson</t>
         </is>
       </c>
       <c r="B42" t="b">
@@ -858,7 +858,7 @@
     <row r="43">
       <c r="A43" t="inlineStr">
         <is>
-          <t>owenoneil05</t>
+          <t>enkuanglung</t>
         </is>
       </c>
       <c r="B43" t="b">
@@ -868,7 +868,7 @@
     <row r="44">
       <c r="A44" t="inlineStr">
         <is>
-          <t>emmabianchi__12</t>
+          <t>rminumass</t>
         </is>
       </c>
       <c r="B44" t="b">
@@ -878,7 +878,7 @@
     <row r="45">
       <c r="A45" t="inlineStr">
         <is>
-          <t>owenmcgl</t>
+          <t>holly.dehaan.1</t>
         </is>
       </c>
       <c r="B45" t="b">
@@ -888,7 +888,7 @@
     <row r="46">
       <c r="A46" t="inlineStr">
         <is>
-          <t>sarah.anderson772</t>
+          <t>grace_purinton</t>
         </is>
       </c>
       <c r="B46" t="b">
@@ -898,7 +898,7 @@
     <row r="47">
       <c r="A47" t="inlineStr">
         <is>
-          <t>_camdenmarengi</t>
+          <t>_atharvakh</t>
         </is>
       </c>
       <c r="B47" t="b">
@@ -908,7 +908,7 @@
     <row r="48">
       <c r="A48" t="inlineStr">
         <is>
-          <t>coreyc.1</t>
+          <t>gaby_zurz_esch</t>
         </is>
       </c>
       <c r="B48" t="b">
@@ -918,7 +918,7 @@
     <row r="49">
       <c r="A49" t="inlineStr">
         <is>
-          <t>justiin.lopez</t>
+          <t>zoola.ultimate</t>
         </is>
       </c>
       <c r="B49" t="b">
@@ -928,7 +928,7 @@
     <row r="50">
       <c r="A50" t="inlineStr">
         <is>
-          <t>ella.bosselman</t>
+          <t>leopolama</t>
         </is>
       </c>
       <c r="B50" t="b">
@@ -938,7 +938,7 @@
     <row r="51">
       <c r="A51" t="inlineStr">
         <is>
-          <t>elizabethrxu</t>
+          <t>rem100510</t>
         </is>
       </c>
       <c r="B51" t="b">
@@ -948,7 +948,7 @@
     <row r="52">
       <c r="A52" t="inlineStr">
         <is>
-          <t>aarin_mehta</t>
+          <t>loribzf</t>
         </is>
       </c>
       <c r="B52" t="b">
@@ -958,7 +958,7 @@
     <row r="53">
       <c r="A53" t="inlineStr">
         <is>
-          <t>naraengk</t>
+          <t>kristikraemer</t>
         </is>
       </c>
       <c r="B53" t="b">
@@ -968,7 +968,7 @@
     <row r="54">
       <c r="A54" t="inlineStr">
         <is>
-          <t>linu71.62</t>
+          <t>deva_shish19</t>
         </is>
       </c>
       <c r="B54" t="b">
@@ -978,7 +978,7 @@
     <row r="55">
       <c r="A55" t="inlineStr">
         <is>
-          <t>juliemccauleyy</t>
+          <t>yuanhe9619</t>
         </is>
       </c>
       <c r="B55" t="b">
@@ -988,7 +988,7 @@
     <row r="56">
       <c r="A56" t="inlineStr">
         <is>
-          <t>desmondkeim</t>
+          <t>melvin_ivann</t>
         </is>
       </c>
       <c r="B56" t="b">
@@ -998,7 +998,7 @@
     <row r="57">
       <c r="A57" t="inlineStr">
         <is>
-          <t>hanaskeary</t>
+          <t>salty_chameleon</t>
         </is>
       </c>
       <c r="B57" t="b">
@@ -1008,7 +1008,7 @@
     <row r="58">
       <c r="A58" t="inlineStr">
         <is>
-          <t>njsuburbs</t>
+          <t>cammygomz</t>
         </is>
       </c>
       <c r="B58" t="b">
@@ -1018,7 +1018,7 @@
     <row r="59">
       <c r="A59" t="inlineStr">
         <is>
-          <t>jkenney08</t>
+          <t>drh02066</t>
         </is>
       </c>
       <c r="B59" t="b">
@@ -1028,7 +1028,7 @@
     <row r="60">
       <c r="A60" t="inlineStr">
         <is>
-          <t>olivianoelle._</t>
+          <t>kristenpetricca</t>
         </is>
       </c>
       <c r="B60" t="b">
@@ -1038,7 +1038,7 @@
     <row r="61">
       <c r="A61" t="inlineStr">
         <is>
-          <t>kaylacarlin</t>
+          <t>dkimvarga</t>
         </is>
       </c>
       <c r="B61" t="b">
@@ -1048,7 +1048,7 @@
     <row r="62">
       <c r="A62" t="inlineStr">
         <is>
-          <t>_wyattbaker_</t>
+          <t>isabellawickc</t>
         </is>
       </c>
       <c r="B62" t="b">
@@ -1058,7 +1058,7 @@
     <row r="63">
       <c r="A63" t="inlineStr">
         <is>
-          <t>braydorseyy</t>
+          <t>miche_meech</t>
         </is>
       </c>
       <c r="B63" t="b">
@@ -1068,7 +1068,7 @@
     <row r="64">
       <c r="A64" t="inlineStr">
         <is>
-          <t>adi03004</t>
+          <t>wilsonz_11</t>
         </is>
       </c>
       <c r="B64" t="b">
@@ -1078,7 +1078,7 @@
     <row r="65">
       <c r="A65" t="inlineStr">
         <is>
-          <t>bonnieeeeeeeeeeeeeeeeee</t>
+          <t>emma_bensley054</t>
         </is>
       </c>
       <c r="B65" t="b">
@@ -1088,7 +1088,7 @@
     <row r="66">
       <c r="A66" t="inlineStr">
         <is>
-          <t>ian.meiii</t>
+          <t>_terrygrant_</t>
         </is>
       </c>
       <c r="B66" t="b">
@@ -1098,7 +1098,7 @@
     <row r="67">
       <c r="A67" t="inlineStr">
         <is>
-          <t>briemcginley</t>
+          <t>isenbergidea</t>
         </is>
       </c>
       <c r="B67" t="b">
@@ -1108,7 +1108,7 @@
     <row r="68">
       <c r="A68" t="inlineStr">
         <is>
-          <t>hridaymunjal_</t>
+          <t>cosmic_toast47</t>
         </is>
       </c>
       <c r="B68" t="b">
@@ -1118,7 +1118,7 @@
     <row r="69">
       <c r="A69" t="inlineStr">
         <is>
-          <t>glutenlessmaximoose</t>
+          <t>eugeneroby</t>
         </is>
       </c>
       <c r="B69" t="b">
@@ -1128,7 +1128,7 @@
     <row r="70">
       <c r="A70" t="inlineStr">
         <is>
-          <t>kayfox1225</t>
+          <t>neha.agarwal811</t>
         </is>
       </c>
       <c r="B70" t="b">
@@ -1138,7 +1138,7 @@
     <row r="71">
       <c r="A71" t="inlineStr">
         <is>
-          <t>srimaan._s</t>
+          <t>crockettlargen</t>
         </is>
       </c>
       <c r="B71" t="b">
@@ -1148,7 +1148,7 @@
     <row r="72">
       <c r="A72" t="inlineStr">
         <is>
-          <t>sarahgreen987</t>
+          <t>_.mollyrobinson._</t>
         </is>
       </c>
       <c r="B72" t="b">
@@ -1158,7 +1158,7 @@
     <row r="73">
       <c r="A73" t="inlineStr">
         <is>
-          <t>ryan_zon777</t>
+          <t>allison.lbrg</t>
         </is>
       </c>
       <c r="B73" t="b">
@@ -1168,7 +1168,7 @@
     <row r="74">
       <c r="A74" t="inlineStr">
         <is>
-          <t>lexiescotttt</t>
+          <t>carirotenberger</t>
         </is>
       </c>
       <c r="B74" t="b">
@@ -1178,7 +1178,7 @@
     <row r="75">
       <c r="A75" t="inlineStr">
         <is>
-          <t>charlienw_</t>
+          <t>your_cutus_47</t>
         </is>
       </c>
       <c r="B75" t="b">
@@ -1188,7 +1188,7 @@
     <row r="76">
       <c r="A76" t="inlineStr">
         <is>
-          <t>adriana_vel_</t>
+          <t>vardy5643</t>
         </is>
       </c>
       <c r="B76" t="b">
@@ -1198,7 +1198,7 @@
     <row r="77">
       <c r="A77" t="inlineStr">
         <is>
-          <t>tom.sls</t>
+          <t>laurenhoopsschmieg</t>
         </is>
       </c>
       <c r="B77" t="b">
@@ -1208,7 +1208,7 @@
     <row r="78">
       <c r="A78" t="inlineStr">
         <is>
-          <t>connor_mcdonell</t>
+          <t>julian_danilchenko</t>
         </is>
       </c>
       <c r="B78" t="b">
@@ -1218,7 +1218,7 @@
     <row r="79">
       <c r="A79" t="inlineStr">
         <is>
-          <t>ireland_reed</t>
+          <t>arni_mola</t>
         </is>
       </c>
       <c r="B79" t="b">
@@ -1228,7 +1228,7 @@
     <row r="80">
       <c r="A80" t="inlineStr">
         <is>
-          <t>brooke_penney22</t>
+          <t>aryajal1904</t>
         </is>
       </c>
       <c r="B80" t="b">
@@ -1238,7 +1238,7 @@
     <row r="81">
       <c r="A81" t="inlineStr">
         <is>
-          <t>j.erikson12</t>
+          <t>billy._._chan</t>
         </is>
       </c>
       <c r="B81" t="b">
@@ -1248,7 +1248,7 @@
     <row r="82">
       <c r="A82" t="inlineStr">
         <is>
-          <t>phoebesullivan03</t>
+          <t>_ismaelmarcos</t>
         </is>
       </c>
       <c r="B82" t="b">
@@ -1258,7 +1258,7 @@
     <row r="83">
       <c r="A83" t="inlineStr">
         <is>
-          <t>brady_arsenault_</t>
+          <t>matt.gresser</t>
         </is>
       </c>
       <c r="B83" t="b">
@@ -1268,7 +1268,7 @@
     <row r="84">
       <c r="A84" t="inlineStr">
         <is>
-          <t>cio_g25</t>
+          <t>madisoncyze</t>
         </is>
       </c>
       <c r="B84" t="b">
@@ -1278,7 +1278,7 @@
     <row r="85">
       <c r="A85" t="inlineStr">
         <is>
-          <t>quinn_schwef</t>
+          <t>ashleyydang</t>
         </is>
       </c>
       <c r="B85" t="b">
@@ -1288,7 +1288,7 @@
     <row r="86">
       <c r="A86" t="inlineStr">
         <is>
-          <t>candersen5555</t>
+          <t>lucalsium</t>
         </is>
       </c>
       <c r="B86" t="b">
@@ -1298,7 +1298,7 @@
     <row r="87">
       <c r="A87" t="inlineStr">
         <is>
-          <t>dylan_lavin</t>
+          <t>s_dhar</t>
         </is>
       </c>
       <c r="B87" t="b">
@@ -1308,7 +1308,7 @@
     <row r="88">
       <c r="A88" t="inlineStr">
         <is>
-          <t>maddie.prk</t>
+          <t>robinbabcockforeverett</t>
         </is>
       </c>
       <c r="B88" t="b">
@@ -1318,7 +1318,7 @@
     <row r="89">
       <c r="A89" t="inlineStr">
         <is>
-          <t>jackhenry4567</t>
+          <t>mauraog</t>
         </is>
       </c>
       <c r="B89" t="b">
@@ -1328,7 +1328,7 @@
     <row r="90">
       <c r="A90" t="inlineStr">
         <is>
-          <t>samjbk</t>
+          <t>deborah.felix13</t>
         </is>
       </c>
       <c r="B90" t="b">
@@ -1338,7 +1338,7 @@
     <row r="91">
       <c r="A91" t="inlineStr">
         <is>
-          <t>gabriella.mallard</t>
+          <t>alliekat1013</t>
         </is>
       </c>
       <c r="B91" t="b">
@@ -1348,7 +1348,7 @@
     <row r="92">
       <c r="A92" t="inlineStr">
         <is>
-          <t>nbh._.sharae</t>
+          <t>davidmlaporte</t>
         </is>
       </c>
       <c r="B92" t="b">
@@ -1358,7 +1358,7 @@
     <row r="93">
       <c r="A93" t="inlineStr">
         <is>
-          <t>austinleombruno</t>
+          <t>aaleena</t>
         </is>
       </c>
       <c r="B93" t="b">
@@ -1368,7 +1368,7 @@
     <row r="94">
       <c r="A94" t="inlineStr">
         <is>
-          <t>arav_arora18</t>
+          <t>advising_acc</t>
         </is>
       </c>
       <c r="B94" t="b">
@@ -1378,7 +1378,7 @@
     <row r="95">
       <c r="A95" t="inlineStr">
         <is>
-          <t>willza124</t>
+          <t>hamadda55656</t>
         </is>
       </c>
       <c r="B95" t="b">
@@ -1388,7 +1388,7 @@
     <row r="96">
       <c r="A96" t="inlineStr">
         <is>
-          <t>king_aamin25</t>
+          <t>wendysiet</t>
         </is>
       </c>
       <c r="B96" t="b">
@@ -1398,7 +1398,7 @@
     <row r="97">
       <c r="A97" t="inlineStr">
         <is>
-          <t>adutoit1618</t>
+          <t>echo743</t>
         </is>
       </c>
       <c r="B97" t="b">
@@ -1408,7 +1408,7 @@
     <row r="98">
       <c r="A98" t="inlineStr">
         <is>
-          <t>_krishna_9600</t>
+          <t>soojinphwang</t>
         </is>
       </c>
       <c r="B98" t="b">
@@ -1418,7 +1418,7 @@
     <row r="99">
       <c r="A99" t="inlineStr">
         <is>
-          <t>sachin_yadav_br_31</t>
+          <t>andelmanmichael</t>
         </is>
       </c>
       <c r="B99" t="b">
@@ -1428,7 +1428,7 @@
     <row r="100">
       <c r="A100" t="inlineStr">
         <is>
-          <t>lcesmealtunkilic</t>
+          <t>gina.ferace</t>
         </is>
       </c>
       <c r="B100" t="b">
@@ -1438,7 +1438,7 @@
     <row r="101">
       <c r="A101" t="inlineStr">
         <is>
-          <t>chrisboomax23</t>
+          <t>alex.nugent05</t>
         </is>
       </c>
       <c r="B101" t="b">
@@ -1448,7 +1448,7 @@
     <row r="102">
       <c r="A102" t="inlineStr">
         <is>
-          <t>g.tty</t>
+          <t>maminti21</t>
         </is>
       </c>
       <c r="B102" t="b">
@@ -1458,7 +1458,7 @@
     <row r="103">
       <c r="A103" t="inlineStr">
         <is>
-          <t>xx_dolorsitamet_xx</t>
+          <t>gyrothompson123</t>
         </is>
       </c>
       <c r="B103" t="b">
@@ -1468,7 +1468,7 @@
     <row r="104">
       <c r="A104" t="inlineStr">
         <is>
-          <t>longo_ava</t>
+          <t>douglashickey</t>
         </is>
       </c>
       <c r="B104" t="b">
@@ -1478,7 +1478,7 @@
     <row r="105">
       <c r="A105" t="inlineStr">
         <is>
-          <t>adelinehamiltonn</t>
+          <t>vee0120</t>
         </is>
       </c>
       <c r="B105" t="b">
@@ -1488,7 +1488,7 @@
     <row r="106">
       <c r="A106" t="inlineStr">
         <is>
-          <t>skylar.morales</t>
+          <t>patricia_elisabeth20</t>
         </is>
       </c>
       <c r="B106" t="b">
@@ -1498,7 +1498,7 @@
     <row r="107">
       <c r="A107" t="inlineStr">
         <is>
-          <t>rdepaoli_</t>
+          <t>andikim68</t>
         </is>
       </c>
       <c r="B107" t="b">
@@ -1508,7 +1508,7 @@
     <row r="108">
       <c r="A108" t="inlineStr">
         <is>
-          <t>aakashnandipaku</t>
+          <t>michaelwasef_</t>
         </is>
       </c>
       <c r="B108" t="b">
@@ -1518,7 +1518,7 @@
     <row r="109">
       <c r="A109" t="inlineStr">
         <is>
-          <t>johan.ium</t>
+          <t>parastoo_dz</t>
         </is>
       </c>
       <c r="B109" t="b">
@@ -1528,7 +1528,7 @@
     <row r="110">
       <c r="A110" t="inlineStr">
         <is>
-          <t>j_ulian_09</t>
+          <t>heidipetrosino</t>
         </is>
       </c>
       <c r="B110" t="b">
@@ -1538,7 +1538,7 @@
     <row r="111">
       <c r="A111" t="inlineStr">
         <is>
-          <t>sean.harwick</t>
+          <t>jamielweeden</t>
         </is>
       </c>
       <c r="B111" t="b">
@@ -1548,7 +1548,7 @@
     <row r="112">
       <c r="A112" t="inlineStr">
         <is>
-          <t>becca.kelleherr</t>
+          <t>_jennifer_reis_v</t>
         </is>
       </c>
       <c r="B112" t="b">
@@ -1558,7 +1558,7 @@
     <row r="113">
       <c r="A113" t="inlineStr">
         <is>
-          <t>sam_ormsby</t>
+          <t>oliviasoolman</t>
         </is>
       </c>
       <c r="B113" t="b">
@@ -1568,7 +1568,7 @@
     <row r="114">
       <c r="A114" t="inlineStr">
         <is>
-          <t>mollykilcoyne</t>
+          <t>smprpr3</t>
         </is>
       </c>
       <c r="B114" t="b">
@@ -1578,7 +1578,7 @@
     <row r="115">
       <c r="A115" t="inlineStr">
         <is>
-          <t>ava.marshall05</t>
+          <t>nkfresh25</t>
         </is>
       </c>
       <c r="B115" t="b">
@@ -1588,7 +1588,7 @@
     <row r="116">
       <c r="A116" t="inlineStr">
         <is>
-          <t>julia.simpson15</t>
+          <t>amygoldman13</t>
         </is>
       </c>
       <c r="B116" t="b">
@@ -1598,7 +1598,7 @@
     <row r="117">
       <c r="A117" t="inlineStr">
         <is>
-          <t>k.altunkilic</t>
+          <t>julzie2</t>
         </is>
       </c>
       <c r="B117" t="b">
@@ -1608,7 +1608,7 @@
     <row r="118">
       <c r="A118" t="inlineStr">
         <is>
-          <t>harrisonwclarke</t>
+          <t>i_am_busy_atm</t>
         </is>
       </c>
       <c r="B118" t="b">
@@ -1618,7 +1618,7 @@
     <row r="119">
       <c r="A119" t="inlineStr">
         <is>
-          <t>nick_fabrizio.04</t>
+          <t>chantalfarra</t>
         </is>
       </c>
       <c r="B119" t="b">
@@ -1628,7 +1628,7 @@
     <row r="120">
       <c r="A120" t="inlineStr">
         <is>
-          <t>griffin.king10</t>
+          <t>avacado.05</t>
         </is>
       </c>
       <c r="B120" t="b">
@@ -1638,7 +1638,7 @@
     <row r="121">
       <c r="A121" t="inlineStr">
         <is>
-          <t>maddie_sirois</t>
+          <t>mahira0309</t>
         </is>
       </c>
       <c r="B121" t="b">
@@ -1648,7 +1648,7 @@
     <row r="122">
       <c r="A122" t="inlineStr">
         <is>
-          <t>emilyperfetuo</t>
+          <t>swoolhouse</t>
         </is>
       </c>
       <c r="B122" t="b">
@@ -1658,7 +1658,7 @@
     <row r="123">
       <c r="A123" t="inlineStr">
         <is>
-          <t>_halenatheroux</t>
+          <t>haticeirmakk</t>
         </is>
       </c>
       <c r="B123" t="b">
@@ -1668,7 +1668,7 @@
     <row r="124">
       <c r="A124" t="inlineStr">
         <is>
-          <t>footer051</t>
+          <t>pzz1020</t>
         </is>
       </c>
       <c r="B124" t="b">
@@ -1678,7 +1678,7 @@
     <row r="125">
       <c r="A125" t="inlineStr">
         <is>
-          <t>tkerushumass</t>
+          <t>isakmartine</t>
         </is>
       </c>
       <c r="B125" t="b">
@@ -1688,7 +1688,7 @@
     <row r="126">
       <c r="A126" t="inlineStr">
         <is>
-          <t>kyliehorne_</t>
+          <t>dmnutrition</t>
         </is>
       </c>
       <c r="B126" t="b">
@@ -1698,7 +1698,7 @@
     <row r="127">
       <c r="A127" t="inlineStr">
         <is>
-          <t>riley_shea04</t>
+          <t>jake.0neil</t>
         </is>
       </c>
       <c r="B127" t="b">
@@ -1708,7 +1708,7 @@
     <row r="128">
       <c r="A128" t="inlineStr">
         <is>
-          <t>blnichols33</t>
+          <t>mari.ayu18</t>
         </is>
       </c>
       <c r="B128" t="b">
@@ -1718,7 +1718,7 @@
     <row r="129">
       <c r="A129" t="inlineStr">
         <is>
-          <t>lily._mae</t>
+          <t>innov8umass</t>
         </is>
       </c>
       <c r="B129" t="b">
@@ -1728,7 +1728,7 @@
     <row r="130">
       <c r="A130" t="inlineStr">
         <is>
-          <t>noam_lepsky</t>
+          <t>libreratommy</t>
         </is>
       </c>
       <c r="B130" t="b">
@@ -1738,7 +1738,7 @@
     <row r="131">
       <c r="A131" t="inlineStr">
         <is>
-          <t>breno_junqueira16</t>
+          <t>nooribrahim232</t>
         </is>
       </c>
       <c r="B131" t="b">
@@ -1748,2107 +1748,2107 @@
     <row r="132">
       <c r="A132" t="inlineStr">
         <is>
-          <t>coleen.golden</t>
+          <t>wbcorbyn</t>
         </is>
       </c>
       <c r="B132" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="133">
       <c r="A133" t="inlineStr">
         <is>
-          <t>074novamc</t>
+          <t>aditikuppuraj</t>
         </is>
       </c>
       <c r="B133" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="134">
       <c r="A134" t="inlineStr">
         <is>
-          <t>kisu7e</t>
+          <t>lucier.kathleen</t>
         </is>
       </c>
       <c r="B134" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="135">
       <c r="A135" t="inlineStr">
         <is>
-          <t>aryanjagwani._</t>
+          <t>maryarloz</t>
         </is>
       </c>
       <c r="B135" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="136">
       <c r="A136" t="inlineStr">
         <is>
-          <t>brennamcneiceee</t>
+          <t>vd4ksh</t>
         </is>
       </c>
       <c r="B136" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="137">
       <c r="A137" t="inlineStr">
         <is>
-          <t>katie.malaquias</t>
+          <t>maulik_haria</t>
         </is>
       </c>
       <c r="B137" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="138">
       <c r="A138" t="inlineStr">
         <is>
-          <t>roman.vivirito</t>
+          <t>jucys9353</t>
         </is>
       </c>
       <c r="B138" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="139">
       <c r="A139" t="inlineStr">
         <is>
-          <t>jus.keepinitreal</t>
+          <t>marcos.whelton</t>
         </is>
       </c>
       <c r="B139" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="140">
       <c r="A140" t="inlineStr">
         <is>
-          <t>vanshtalreja1</t>
+          <t>sas_maxfield</t>
         </is>
       </c>
       <c r="B140" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="141">
       <c r="A141" t="inlineStr">
         <is>
-          <t>girlpower.go</t>
+          <t>uemsventures</t>
         </is>
       </c>
       <c r="B141" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="142">
       <c r="A142" t="inlineStr">
         <is>
-          <t>penreynoldss</t>
+          <t>areed72</t>
         </is>
       </c>
       <c r="B142" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="143">
       <c r="A143" t="inlineStr">
         <is>
-          <t>michael.laflamme88</t>
+          <t>sing210</t>
         </is>
       </c>
       <c r="B143" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="144">
       <c r="A144" t="inlineStr">
         <is>
-          <t>d_bentley1</t>
+          <t>reb4600</t>
         </is>
       </c>
       <c r="B144" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="145">
       <c r="A145" t="inlineStr">
         <is>
-          <t>danial12.__</t>
+          <t>mxtcha._</t>
         </is>
       </c>
       <c r="B145" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="146">
       <c r="A146" t="inlineStr">
         <is>
-          <t>_adam.york</t>
+          <t>nellie_s_vieira</t>
         </is>
       </c>
       <c r="B146" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="147">
       <c r="A147" t="inlineStr">
         <is>
-          <t>abby_welz31</t>
+          <t>mishu_lovey</t>
         </is>
       </c>
       <c r="B147" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="148">
       <c r="A148" t="inlineStr">
         <is>
-          <t>alexfillmore_</t>
+          <t>074novamc</t>
         </is>
       </c>
       <c r="B148" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="149">
       <c r="A149" t="inlineStr">
         <is>
-          <t>alexphaaam</t>
+          <t>buonocoredina</t>
         </is>
       </c>
       <c r="B149" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="150">
       <c r="A150" t="inlineStr">
         <is>
-          <t>paddyjarit</t>
+          <t>ddsdrs</t>
         </is>
       </c>
       <c r="B150" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="151">
       <c r="A151" t="inlineStr">
         <is>
-          <t>syd.morrissey</t>
+          <t>car0line.png</t>
         </is>
       </c>
       <c r="B151" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="152">
       <c r="A152" t="inlineStr">
         <is>
-          <t>cameryn.215</t>
+          <t>shirakohnnn</t>
         </is>
       </c>
       <c r="B152" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="153">
       <c r="A153" t="inlineStr">
         <is>
-          <t>josephash_</t>
+          <t>jackie.vitiello</t>
         </is>
       </c>
       <c r="B153" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="154">
       <c r="A154" t="inlineStr">
         <is>
-          <t>kerrimercier</t>
+          <t>stargirou.x</t>
         </is>
       </c>
       <c r="B154" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="155">
       <c r="A155" t="inlineStr">
         <is>
-          <t>thomaskessinger</t>
+          <t>eyeherlife_</t>
         </is>
       </c>
       <c r="B155" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="156">
       <c r="A156" t="inlineStr">
         <is>
-          <t>aalyssaadams</t>
+          <t>dawnvt89</t>
         </is>
       </c>
       <c r="B156" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="157">
       <c r="A157" t="inlineStr">
         <is>
-          <t>ben.berks</t>
+          <t>rdsh125</t>
         </is>
       </c>
       <c r="B157" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="158">
       <c r="A158" t="inlineStr">
         <is>
-          <t>ellapescione</t>
+          <t>cicadas_twighlights</t>
         </is>
       </c>
       <c r="B158" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="159">
       <c r="A159" t="inlineStr">
         <is>
-          <t>brooke__davies</t>
+          <t>josh_mermelstein</t>
         </is>
       </c>
       <c r="B159" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="160">
       <c r="A160" t="inlineStr">
         <is>
-          <t>vara_veena100</t>
+          <t>vans1412</t>
         </is>
       </c>
       <c r="B160" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="161">
       <c r="A161" t="inlineStr">
         <is>
-          <t>kmkelleyy</t>
+          <t>meganat0r</t>
         </is>
       </c>
       <c r="B161" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="162">
       <c r="A162" t="inlineStr">
         <is>
-          <t>emmittc5</t>
+          <t>faeriegirl515</t>
         </is>
       </c>
       <c r="B162" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="163">
       <c r="A163" t="inlineStr">
         <is>
-          <t>_eli.se01_</t>
+          <t>myamakesmenut</t>
         </is>
       </c>
       <c r="B163" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="164">
       <c r="A164" t="inlineStr">
         <is>
-          <t>peter_rod_</t>
+          <t>kathy_donoghue</t>
         </is>
       </c>
       <c r="B164" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="165">
       <c r="A165" t="inlineStr">
         <is>
-          <t>michael.m_23</t>
+          <t>baoan638</t>
         </is>
       </c>
       <c r="B165" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="166">
       <c r="A166" t="inlineStr">
         <is>
-          <t>isa.cm24</t>
+          <t>alexandresan04</t>
         </is>
       </c>
       <c r="B166" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="167">
       <c r="A167" t="inlineStr">
         <is>
-          <t>avakelloway</t>
+          <t>kaypassa2</t>
         </is>
       </c>
       <c r="B167" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="168">
       <c r="A168" t="inlineStr">
         <is>
-          <t>griffin.rodden</t>
+          <t>dolob1999</t>
         </is>
       </c>
       <c r="B168" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="169">
       <c r="A169" t="inlineStr">
         <is>
-          <t>halie.06</t>
+          <t>kaylynb06</t>
         </is>
       </c>
       <c r="B169" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="170">
       <c r="A170" t="inlineStr">
         <is>
-          <t>caylee.goulet</t>
+          <t>lorilanergan</t>
         </is>
       </c>
       <c r="B170" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="171">
       <c r="A171" t="inlineStr">
         <is>
-          <t>ftrters</t>
+          <t>claytonmeixel</t>
         </is>
       </c>
       <c r="B171" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="172">
       <c r="A172" t="inlineStr">
         <is>
-          <t>maxpryzbek</t>
+          <t>leah_derocher_hudgins</t>
         </is>
       </c>
       <c r="B172" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="173">
       <c r="A173" t="inlineStr">
         <is>
-          <t>aanyatrishna</t>
+          <t>_miriamjohannes</t>
         </is>
       </c>
       <c r="B173" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="174">
       <c r="A174" t="inlineStr">
         <is>
-          <t>br_huddy</t>
+          <t>midmodgrrl</t>
         </is>
       </c>
       <c r="B174" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="175">
       <c r="A175" t="inlineStr">
         <is>
-          <t>ryan.cotton17</t>
+          <t>3_boys_and_a_teacher</t>
         </is>
       </c>
       <c r="B175" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="176">
       <c r="A176" t="inlineStr">
         <is>
-          <t>joeymahoneyy</t>
+          <t>umass.psych.advising</t>
         </is>
       </c>
       <c r="B176" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="177">
       <c r="A177" t="inlineStr">
         <is>
-          <t>david.hom22</t>
+          <t>anitathomas2025</t>
         </is>
       </c>
       <c r="B177" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="178">
       <c r="A178" t="inlineStr">
         <is>
-          <t>alexaaryann</t>
+          <t>sharpattitude</t>
         </is>
       </c>
       <c r="B178" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="179">
       <c r="A179" t="inlineStr">
         <is>
-          <t>luke_morrison417</t>
+          <t>irini.eliopoulos</t>
         </is>
       </c>
       <c r="B179" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="180">
       <c r="A180" t="inlineStr">
         <is>
-          <t>martytsankov</t>
+          <t>joybean842</t>
         </is>
       </c>
       <c r="B180" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="181">
       <c r="A181" t="inlineStr">
         <is>
-          <t>liamgeraghty_</t>
+          <t>kyle_murray10</t>
         </is>
       </c>
       <c r="B181" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="182">
       <c r="A182" t="inlineStr">
         <is>
-          <t>prettyboyjesiah</t>
+          <t>jocelynnharris</t>
         </is>
       </c>
       <c r="B182" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="183">
       <c r="A183" t="inlineStr">
         <is>
-          <t>preeti.ccsp</t>
+          <t>kariyamin</t>
         </is>
       </c>
       <c r="B183" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="184">
       <c r="A184" t="inlineStr">
         <is>
-          <t>settyvamsikrishna</t>
+          <t>ben.w.28</t>
         </is>
       </c>
       <c r="B184" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="185">
       <c r="A185" t="inlineStr">
         <is>
-          <t>lorilancer</t>
+          <t>cmrng_</t>
         </is>
       </c>
       <c r="B185" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="186">
       <c r="A186" t="inlineStr">
         <is>
-          <t>ianrapko</t>
+          <t>nathalie_lakin</t>
         </is>
       </c>
       <c r="B186" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="187">
       <c r="A187" t="inlineStr">
         <is>
-          <t>julianna__joseph</t>
+          <t>kahlenn.marie</t>
         </is>
       </c>
       <c r="B187" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="188">
       <c r="A188" t="inlineStr">
         <is>
-          <t>laurenfeige</t>
+          <t>paolaoppenheimer</t>
         </is>
       </c>
       <c r="B188" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="189">
       <c r="A189" t="inlineStr">
         <is>
-          <t>andrew.lef</t>
+          <t>hcleary123</t>
         </is>
       </c>
       <c r="B189" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="190">
       <c r="A190" t="inlineStr">
         <is>
-          <t>mackenzieshaw_</t>
+          <t>koachkathleen</t>
         </is>
       </c>
       <c r="B190" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="191">
       <c r="A191" t="inlineStr">
         <is>
-          <t>jashbhut_</t>
+          <t>nahmteerat</t>
         </is>
       </c>
       <c r="B191" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="192">
       <c r="A192" t="inlineStr">
         <is>
-          <t>tennis.celloguy</t>
+          <t>jacklcrp</t>
         </is>
       </c>
       <c r="B192" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="193">
       <c r="A193" t="inlineStr">
         <is>
-          <t>bobn17xx</t>
+          <t>_mauramc</t>
         </is>
       </c>
       <c r="B193" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="194">
       <c r="A194" t="inlineStr">
         <is>
-          <t>chp2ofmike</t>
+          <t>meganperissi</t>
         </is>
       </c>
       <c r="B194" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="195">
       <c r="A195" t="inlineStr">
         <is>
-          <t>pt_boston</t>
+          <t>herrin_gladys01</t>
         </is>
       </c>
       <c r="B195" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="196">
       <c r="A196" t="inlineStr">
         <is>
-          <t>landonmaxwell</t>
+          <t>s.pierre24</t>
         </is>
       </c>
       <c r="B196" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="197">
       <c r="A197" t="inlineStr">
         <is>
-          <t>pupsila_mak</t>
+          <t>prash.05</t>
         </is>
       </c>
       <c r="B197" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="198">
       <c r="A198" t="inlineStr">
         <is>
-          <t>cassidy__ricee</t>
+          <t>allygre</t>
         </is>
       </c>
       <c r="B198" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="199">
       <c r="A199" t="inlineStr">
         <is>
-          <t>manu.gm7</t>
+          <t>umassthrows</t>
         </is>
       </c>
       <c r="B199" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="200">
       <c r="A200" t="inlineStr">
         <is>
-          <t>_nickcas</t>
+          <t>crogers63</t>
         </is>
       </c>
       <c r="B200" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="201">
       <c r="A201" t="inlineStr">
         <is>
-          <t>peytonholson</t>
+          <t>jsouzabend</t>
         </is>
       </c>
       <c r="B201" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="202">
       <c r="A202" t="inlineStr">
         <is>
-          <t>tina.le3</t>
+          <t>miamaria26</t>
         </is>
       </c>
       <c r="B202" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="203">
       <c r="A203" t="inlineStr">
         <is>
-          <t>spencer_nordin</t>
+          <t>_cooper_granville</t>
         </is>
       </c>
       <c r="B203" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="204">
       <c r="A204" t="inlineStr">
         <is>
-          <t>sonia.mpy</t>
+          <t>alexandre_f77</t>
         </is>
       </c>
       <c r="B204" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="205">
       <c r="A205" t="inlineStr">
         <is>
-          <t>bhavna.vn</t>
+          <t>tracey_jane_brown</t>
         </is>
       </c>
       <c r="B205" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="206">
       <c r="A206" t="inlineStr">
         <is>
-          <t>ally_santos33</t>
+          <t>umassbikecoop</t>
         </is>
       </c>
       <c r="B206" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="207">
       <c r="A207" t="inlineStr">
         <is>
-          <t>arielleteleshe</t>
+          <t>coogs_7</t>
         </is>
       </c>
       <c r="B207" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="208">
       <c r="A208" t="inlineStr">
         <is>
-          <t>marishka._.h</t>
+          <t>emma1172</t>
         </is>
       </c>
       <c r="B208" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="209">
       <c r="A209" t="inlineStr">
         <is>
-          <t>jackdesmond65</t>
+          <t>mbenson7</t>
         </is>
       </c>
       <c r="B209" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="210">
       <c r="A210" t="inlineStr">
         <is>
-          <t>natejacquart</t>
+          <t>yoglate</t>
         </is>
       </c>
       <c r="B210" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="211">
       <c r="A211" t="inlineStr">
         <is>
-          <t>devinr_04</t>
+          <t>kferrari24</t>
         </is>
       </c>
       <c r="B211" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="212">
       <c r="A212" t="inlineStr">
         <is>
-          <t>kristianbush16</t>
+          <t>watjenna5</t>
         </is>
       </c>
       <c r="B212" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="213">
       <c r="A213" t="inlineStr">
         <is>
-          <t>giaannamena</t>
+          <t>danixh12</t>
         </is>
       </c>
       <c r="B213" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="214">
       <c r="A214" t="inlineStr">
         <is>
-          <t>josie.servaes</t>
+          <t>kate_maja123</t>
         </is>
       </c>
       <c r="B214" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="215">
       <c r="A215" t="inlineStr">
         <is>
-          <t>quinn.beisel</t>
+          <t>_dudabn</t>
         </is>
       </c>
       <c r="B215" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="216">
       <c r="A216" t="inlineStr">
         <is>
-          <t>nick.catuosco</t>
+          <t>mollynoone_</t>
         </is>
       </c>
       <c r="B216" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="217">
       <c r="A217" t="inlineStr">
         <is>
-          <t>narayana_nkk</t>
+          <t>whxteswxn</t>
         </is>
       </c>
       <c r="B217" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="218">
       <c r="A218" t="inlineStr">
         <is>
-          <t>antonyruan88</t>
+          <t>cin_bernardess_</t>
         </is>
       </c>
       <c r="B218" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="219">
       <c r="A219" t="inlineStr">
         <is>
-          <t>_lucasolson_</t>
+          <t>rockluv2021</t>
         </is>
       </c>
       <c r="B219" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="220">
       <c r="A220" t="inlineStr">
         <is>
-          <t>elinissenbaum</t>
+          <t>vinosharan</t>
         </is>
       </c>
       <c r="B220" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="221">
       <c r="A221" t="inlineStr">
         <is>
-          <t>maxwelldavis23</t>
+          <t>nookendra</t>
         </is>
       </c>
       <c r="B221" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="222">
       <c r="A222" t="inlineStr">
         <is>
-          <t>prinika_k</t>
+          <t>preetimalik2706</t>
         </is>
       </c>
       <c r="B222" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="223">
       <c r="A223" t="inlineStr">
         <is>
-          <t>reesekurtt</t>
+          <t>pdawny13</t>
         </is>
       </c>
       <c r="B223" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="224">
       <c r="A224" t="inlineStr">
         <is>
-          <t>nosirrahl</t>
+          <t>spcord</t>
         </is>
       </c>
       <c r="B224" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="225">
       <c r="A225" t="inlineStr">
         <is>
-          <t>jaden8585</t>
+          <t>charu.soni_</t>
         </is>
       </c>
       <c r="B225" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="226">
       <c r="A226" t="inlineStr">
         <is>
-          <t>jamesbertonejohnson</t>
+          <t>rileyevans510</t>
         </is>
       </c>
       <c r="B226" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="227">
       <c r="A227" t="inlineStr">
         <is>
-          <t>ashley_arokiaraj</t>
+          <t>_cynthia_nova</t>
         </is>
       </c>
       <c r="B227" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="228">
       <c r="A228" t="inlineStr">
         <is>
-          <t>sakama379</t>
+          <t>joshuakurland</t>
         </is>
       </c>
       <c r="B228" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="229">
       <c r="A229" t="inlineStr">
         <is>
-          <t>emma.reif</t>
+          <t>melissa_5808</t>
         </is>
       </c>
       <c r="B229" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="230">
       <c r="A230" t="inlineStr">
         <is>
-          <t>collection10.ro</t>
+          <t>brianv.swartz</t>
         </is>
       </c>
       <c r="B230" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="231">
       <c r="A231" t="inlineStr">
         <is>
-          <t>laurenpetzoldd</t>
+          <t>dianaviducicwarne</t>
         </is>
       </c>
       <c r="B231" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="232">
       <c r="A232" t="inlineStr">
         <is>
-          <t>_evelyn_m__</t>
+          <t>colombia_2003</t>
         </is>
       </c>
       <c r="B232" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="233">
       <c r="A233" t="inlineStr">
         <is>
-          <t>markusp1.8</t>
+          <t>ericchne31</t>
         </is>
       </c>
       <c r="B233" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="234">
       <c r="A234" t="inlineStr">
         <is>
-          <t>daphnne.cabrera</t>
+          <t>_.zaeem</t>
         </is>
       </c>
       <c r="B234" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="235">
       <c r="A235" t="inlineStr">
         <is>
-          <t>wdbutler23</t>
+          <t>thedurgeshguptaa</t>
         </is>
       </c>
       <c r="B235" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="236">
       <c r="A236" t="inlineStr">
         <is>
-          <t>larakebabjian</t>
+          <t>sauci74</t>
         </is>
       </c>
       <c r="B236" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="237">
       <c r="A237" t="inlineStr">
         <is>
-          <t>rileygetchell</t>
+          <t>ackefalas</t>
         </is>
       </c>
       <c r="B237" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="238">
       <c r="A238" t="inlineStr">
         <is>
-          <t>ava.noel7</t>
+          <t>swee_prv</t>
         </is>
       </c>
       <c r="B238" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="239">
       <c r="A239" t="inlineStr">
         <is>
-          <t>bhavya_373</t>
+          <t>ashleybuckman_</t>
         </is>
       </c>
       <c r="B239" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="240">
       <c r="A240" t="inlineStr">
         <is>
-          <t>danny.varg205</t>
+          <t>naslednikz</t>
         </is>
       </c>
       <c r="B240" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="241">
       <c r="A241" t="inlineStr">
         <is>
-          <t>brightyellow16</t>
+          <t>rachit.211104</t>
         </is>
       </c>
       <c r="B241" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="242">
       <c r="A242" t="inlineStr">
         <is>
-          <t>tedwards425</t>
+          <t>riley_shea04</t>
         </is>
       </c>
       <c r="B242" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="243">
       <c r="A243" t="inlineStr">
         <is>
-          <t>realnickspano</t>
+          <t>parikh25</t>
         </is>
       </c>
       <c r="B243" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="244">
       <c r="A244" t="inlineStr">
         <is>
-          <t>gaurangpatill</t>
+          <t>katycore</t>
         </is>
       </c>
       <c r="B244" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="245">
       <c r="A245" t="inlineStr">
         <is>
-          <t>mackenziecatlinn</t>
+          <t>jbmoran</t>
         </is>
       </c>
       <c r="B245" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="246">
       <c r="A246" t="inlineStr">
         <is>
-          <t>michael_uffer</t>
+          <t>cjstallone</t>
         </is>
       </c>
       <c r="B246" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="247">
       <c r="A247" t="inlineStr">
         <is>
-          <t>matthew_morris74073</t>
+          <t>priyaparimi</t>
         </is>
       </c>
       <c r="B247" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="248">
       <c r="A248" t="inlineStr">
         <is>
-          <t>leah.shir</t>
+          <t>yerbabas</t>
         </is>
       </c>
       <c r="B248" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="249">
       <c r="A249" t="inlineStr">
         <is>
-          <t>brianmichienzi01</t>
+          <t>katelyn.pereiraa</t>
         </is>
       </c>
       <c r="B249" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="250">
       <c r="A250" t="inlineStr">
         <is>
-          <t>nikitaarajj</t>
+          <t>lylylakewood</t>
         </is>
       </c>
       <c r="B250" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="251">
       <c r="A251" t="inlineStr">
         <is>
-          <t>chasewbalutis</t>
+          <t>clmchin</t>
         </is>
       </c>
       <c r="B251" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="252">
       <c r="A252" t="inlineStr">
         <is>
-          <t>belatk</t>
+          <t>jensully22</t>
         </is>
       </c>
       <c r="B252" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="253">
       <c r="A253" t="inlineStr">
         <is>
-          <t>talinakhalil</t>
+          <t>meliabella</t>
         </is>
       </c>
       <c r="B253" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="254">
       <c r="A254" t="inlineStr">
         <is>
-          <t>brice.landryy</t>
+          <t>umasscontagio</t>
         </is>
       </c>
       <c r="B254" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="255">
       <c r="A255" t="inlineStr">
         <is>
-          <t>western_shout</t>
+          <t>nancymanning19</t>
         </is>
       </c>
       <c r="B255" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="256">
       <c r="A256" t="inlineStr">
         <is>
-          <t>lxstalex</t>
+          <t>ksquared2174</t>
         </is>
       </c>
       <c r="B256" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="257">
       <c r="A257" t="inlineStr">
         <is>
-          <t>anthony_giugg</t>
+          <t>megbezerra</t>
         </is>
       </c>
       <c r="B257" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="258">
       <c r="A258" t="inlineStr">
         <is>
-          <t>nathan_pettingell</t>
+          <t>fresh_hip_kid</t>
         </is>
       </c>
       <c r="B258" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="259">
       <c r="A259" t="inlineStr">
         <is>
-          <t>skopparapu19</t>
+          <t>aldolicio_s</t>
         </is>
       </c>
       <c r="B259" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="260">
       <c r="A260" t="inlineStr">
         <is>
-          <t>theberrywitek</t>
+          <t>nickr0722</t>
         </is>
       </c>
       <c r="B260" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="261">
       <c r="A261" t="inlineStr">
         <is>
-          <t>katie_margolis</t>
+          <t>danielle.healy1</t>
         </is>
       </c>
       <c r="B261" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="262">
       <c r="A262" t="inlineStr">
         <is>
-          <t>ellen.brady</t>
+          <t>sandu2878</t>
         </is>
       </c>
       <c r="B262" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="263">
       <c r="A263" t="inlineStr">
         <is>
-          <t>henry_gutta</t>
+          <t>rashmi.katyal.31</t>
         </is>
       </c>
       <c r="B263" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="264">
       <c r="A264" t="inlineStr">
         <is>
-          <t>lyli.bugg</t>
+          <t>simon_dixon7i</t>
         </is>
       </c>
       <c r="B264" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="265">
       <c r="A265" t="inlineStr">
         <is>
-          <t>maya.corbyn</t>
+          <t>angela_pointon</t>
         </is>
       </c>
       <c r="B265" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="266">
       <c r="A266" t="inlineStr">
         <is>
-          <t>parthu_535</t>
+          <t>cofoadmissions</t>
         </is>
       </c>
       <c r="B266" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="267">
       <c r="A267" t="inlineStr">
         <is>
-          <t>alisagranovsky</t>
+          <t>the_wild_robo</t>
         </is>
       </c>
       <c r="B267" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="268">
       <c r="A268" t="inlineStr">
         <is>
-          <t>jackson.ring</t>
+          <t>sheri_jette</t>
         </is>
       </c>
       <c r="B268" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="269">
       <c r="A269" t="inlineStr">
         <is>
-          <t>dilann_arda</t>
+          <t>emo.male</t>
         </is>
       </c>
       <c r="B269" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="270">
       <c r="A270" t="inlineStr">
         <is>
-          <t>braedenarchambault</t>
+          <t>nickegriffin</t>
         </is>
       </c>
       <c r="B270" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="271">
       <c r="A271" t="inlineStr">
         <is>
-          <t>jayant.m12</t>
+          <t>kukrejamanchanda</t>
         </is>
       </c>
       <c r="B271" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="272">
       <c r="A272" t="inlineStr">
         <is>
-          <t>jackmaz_</t>
+          <t>d0vyayayayayay</t>
         </is>
       </c>
       <c r="B272" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="273">
       <c r="A273" t="inlineStr">
         <is>
-          <t>bensolari97</t>
+          <t>dlrdandrea</t>
         </is>
       </c>
       <c r="B273" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="274">
       <c r="A274" t="inlineStr">
         <is>
-          <t>sujata2602</t>
+          <t>gracenaghibi</t>
         </is>
       </c>
       <c r="B274" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="275">
       <c r="A275" t="inlineStr">
         <is>
-          <t>jordi_peck</t>
+          <t>afahasanova80</t>
         </is>
       </c>
       <c r="B275" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="276">
       <c r="A276" t="inlineStr">
         <is>
-          <t>anna_zhenggg</t>
+          <t>carynmignemi</t>
         </is>
       </c>
       <c r="B276" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="277">
       <c r="A277" t="inlineStr">
         <is>
-          <t>amandawood00_</t>
+          <t>canno.n54</t>
         </is>
       </c>
       <c r="B277" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="278">
       <c r="A278" t="inlineStr">
         <is>
-          <t>dvija.bhadani</t>
+          <t>lilygigante</t>
         </is>
       </c>
       <c r="B278" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="279">
       <c r="A279" t="inlineStr">
         <is>
-          <t>maddieekirk</t>
+          <t>adam.t.greene.1</t>
         </is>
       </c>
       <c r="B279" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="280">
       <c r="A280" t="inlineStr">
         <is>
-          <t>yousef.dualeh</t>
+          <t>bhawna.ty</t>
         </is>
       </c>
       <c r="B280" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="281">
       <c r="A281" t="inlineStr">
         <is>
-          <t>norallevy</t>
+          <t>jendowling1013</t>
         </is>
       </c>
       <c r="B281" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="282">
       <c r="A282" t="inlineStr">
         <is>
-          <t>kathleenfoley512</t>
+          <t>gretchen_bliss</t>
         </is>
       </c>
       <c r="B282" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="283">
       <c r="A283" t="inlineStr">
         <is>
-          <t>trallowpurple</t>
+          <t>audramlcw</t>
         </is>
       </c>
       <c r="B283" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="284">
       <c r="A284" t="inlineStr">
         <is>
-          <t>calvlahos</t>
+          <t>richarda6478</t>
         </is>
       </c>
       <c r="B284" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="285">
       <c r="A285" t="inlineStr">
         <is>
-          <t>borja_tolay</t>
+          <t>taha._.s05</t>
         </is>
       </c>
       <c r="B285" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="286">
       <c r="A286" t="inlineStr">
         <is>
-          <t>kimmyfreds</t>
+          <t>isabellemara1020</t>
         </is>
       </c>
       <c r="B286" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="287">
       <c r="A287" t="inlineStr">
         <is>
-          <t>julianamaro23</t>
+          <t>nate__dinh</t>
         </is>
       </c>
       <c r="B287" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="288">
       <c r="A288" t="inlineStr">
         <is>
-          <t>michael_kobrin</t>
+          <t>darylshir</t>
         </is>
       </c>
       <c r="B288" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="289">
       <c r="A289" t="inlineStr">
         <is>
-          <t>cole.souza1</t>
+          <t>cstone_011</t>
         </is>
       </c>
       <c r="B289" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="290">
       <c r="A290" t="inlineStr">
         <is>
-          <t>marcopacini04</t>
+          <t>rabiya212</t>
         </is>
       </c>
       <c r="B290" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="291">
       <c r="A291" t="inlineStr">
         <is>
-          <t>joemontville</t>
+          <t>anya.518</t>
         </is>
       </c>
       <c r="B291" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="292">
       <c r="A292" t="inlineStr">
         <is>
-          <t>gabbydesouzaa</t>
+          <t>ouma__bally</t>
         </is>
       </c>
       <c r="B292" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="293">
       <c r="A293" t="inlineStr">
         <is>
-          <t>aminataa991</t>
+          <t>jossycouture</t>
         </is>
       </c>
       <c r="B293" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="294">
       <c r="A294" t="inlineStr">
         <is>
-          <t>tammy_npm</t>
+          <t>djkhalili</t>
         </is>
       </c>
       <c r="B294" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="295">
       <c r="A295" t="inlineStr">
         <is>
-          <t>jakewhite4173</t>
+          <t>teen_architect</t>
         </is>
       </c>
       <c r="B295" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="296">
       <c r="A296" t="inlineStr">
         <is>
-          <t>toyooo.28</t>
+          <t>caseywong903</t>
         </is>
       </c>
       <c r="B296" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="297">
       <c r="A297" t="inlineStr">
         <is>
-          <t>jacob_murch</t>
+          <t>njesh_gaceri</t>
         </is>
       </c>
       <c r="B297" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="298">
       <c r="A298" t="inlineStr">
         <is>
-          <t>willontop21</t>
+          <t>sanjak_3</t>
         </is>
       </c>
       <c r="B298" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="299">
       <c r="A299" t="inlineStr">
         <is>
-          <t>brennancarlson4</t>
+          <t>kmjtnr</t>
         </is>
       </c>
       <c r="B299" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="300">
       <c r="A300" t="inlineStr">
         <is>
-          <t>jacklambert59</t>
+          <t>kaka2616</t>
         </is>
       </c>
       <c r="B300" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="301">
       <c r="A301" t="inlineStr">
         <is>
-          <t>brixsw</t>
+          <t>ema474</t>
         </is>
       </c>
       <c r="B301" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="302">
       <c r="A302" t="inlineStr">
         <is>
-          <t>vidushinagaraja</t>
+          <t>mlmicone</t>
         </is>
       </c>
       <c r="B302" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="303">
       <c r="A303" t="inlineStr">
         <is>
-          <t>wyatt_beaulieu_</t>
+          <t>alishah.2003</t>
         </is>
       </c>
       <c r="B303" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="304">
       <c r="A304" t="inlineStr">
         <is>
-          <t>_radhikaa_6</t>
+          <t>salsafied</t>
         </is>
       </c>
       <c r="B304" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="305">
       <c r="A305" t="inlineStr">
         <is>
-          <t>maddie.rand</t>
+          <t>mandy.ma_</t>
         </is>
       </c>
       <c r="B305" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="306">
       <c r="A306" t="inlineStr">
         <is>
-          <t>brayden_deh_8881</t>
+          <t>soheilasate</t>
         </is>
       </c>
       <c r="B306" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="307">
       <c r="A307" t="inlineStr">
         <is>
-          <t>missy.rhi</t>
+          <t>rrupe524</t>
         </is>
       </c>
       <c r="B307" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="308">
       <c r="A308" t="inlineStr">
         <is>
-          <t>connormcdowell4</t>
+          <t>tracisarnataro</t>
         </is>
       </c>
       <c r="B308" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="309">
       <c r="A309" t="inlineStr">
         <is>
-          <t>alingala8</t>
+          <t>jannaduckworth</t>
         </is>
       </c>
       <c r="B309" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="310">
       <c r="A310" t="inlineStr">
         <is>
-          <t>mattyhynes07</t>
+          <t>moriarty.sarah</t>
         </is>
       </c>
       <c r="B310" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="311">
       <c r="A311" t="inlineStr">
         <is>
-          <t>gabbysilviaa</t>
+          <t>bbrown4044</t>
         </is>
       </c>
       <c r="B311" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="312">
       <c r="A312" t="inlineStr">
         <is>
-          <t>cwcumass</t>
+          <t>geethargph</t>
         </is>
       </c>
       <c r="B312" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="313">
       <c r="A313" t="inlineStr">
         <is>
-          <t>aryantamhane_</t>
+          <t>anna_michienzi</t>
         </is>
       </c>
       <c r="B313" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="314">
       <c r="A314" t="inlineStr">
         <is>
-          <t>tuimi.lng</t>
+          <t>sandzadonovan</t>
         </is>
       </c>
       <c r="B314" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="315">
       <c r="A315" t="inlineStr">
         <is>
-          <t>avital.serur</t>
+          <t>suzyyto</t>
         </is>
       </c>
       <c r="B315" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="316">
       <c r="A316" t="inlineStr">
         <is>
-          <t>bellagoncalves8</t>
+          <t>emmaweinertt</t>
         </is>
       </c>
       <c r="B316" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="317">
       <c r="A317" t="inlineStr">
         <is>
-          <t>gryffin.stoddard</t>
+          <t>debyang4</t>
         </is>
       </c>
       <c r="B317" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="318">
       <c r="A318" t="inlineStr">
         <is>
-          <t>sneha_guptaa_01</t>
+          <t>jackcurran331</t>
         </is>
       </c>
       <c r="B318" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="319">
       <c r="A319" t="inlineStr">
         <is>
-          <t>cscott1409772</t>
+          <t>geronimobodrum</t>
         </is>
       </c>
       <c r="B319" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="320">
       <c r="A320" t="inlineStr">
         <is>
-          <t>otto.indelicato</t>
+          <t>cmcgrath29</t>
         </is>
       </c>
       <c r="B320" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="321">
       <c r="A321" t="inlineStr">
         <is>
-          <t>collyn.des</t>
+          <t>s.sundaramsenders413</t>
         </is>
       </c>
       <c r="B321" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="322">
       <c r="A322" t="inlineStr">
         <is>
-          <t>alexandrasgreen</t>
+          <t>nonalerx</t>
         </is>
       </c>
       <c r="B322" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="323">
       <c r="A323" t="inlineStr">
         <is>
-          <t>508_gas</t>
+          <t>sharavan__10</t>
         </is>
       </c>
       <c r="B323" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="324">
       <c r="A324" t="inlineStr">
         <is>
-          <t>davis_nila</t>
+          <t>margobrown.mb</t>
         </is>
       </c>
       <c r="B324" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="325">
       <c r="A325" t="inlineStr">
         <is>
-          <t>erinreagann</t>
+          <t>_joachinla23</t>
         </is>
       </c>
       <c r="B325" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="326">
       <c r="A326" t="inlineStr">
         <is>
-          <t>gabbycurl_</t>
+          <t>sammybean05</t>
         </is>
       </c>
       <c r="B326" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="327">
       <c r="A327" t="inlineStr">
         <is>
-          <t>felipesena.8</t>
+          <t>adepalma73</t>
         </is>
       </c>
       <c r="B327" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="328">
       <c r="A328" t="inlineStr">
         <is>
-          <t>itsthelifeofmike</t>
+          <t>brianzucc17</t>
         </is>
       </c>
       <c r="B328" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="329">
       <c r="A329" t="inlineStr">
         <is>
-          <t>brendanoguin</t>
+          <t>valeria.centinaro</t>
         </is>
       </c>
       <c r="B329" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="330">
       <c r="A330" t="inlineStr">
         <is>
-          <t>reza.nas99</t>
+          <t>gavinsullivan6156</t>
         </is>
       </c>
       <c r="B330" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="331">
       <c r="A331" t="inlineStr">
         <is>
-          <t>sam_duuble</t>
+          <t>alemapgram</t>
         </is>
       </c>
       <c r="B331" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="332">
       <c r="A332" t="inlineStr">
         <is>
-          <t>mindyjhoff</t>
+          <t>tmbolduc</t>
         </is>
       </c>
       <c r="B332" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="333">
       <c r="A333" t="inlineStr">
         <is>
-          <t>spencer.masoud</t>
+          <t>mdalton46</t>
         </is>
       </c>
       <c r="B333" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="334">
       <c r="A334" t="inlineStr">
         <is>
-          <t>satluri05</t>
+          <t>ranademsr1878</t>
         </is>
       </c>
       <c r="B334" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="335">
       <c r="A335" t="inlineStr">
         <is>
-          <t>janelle.gaudette</t>
+          <t>juliaaguerro</t>
         </is>
       </c>
       <c r="B335" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="336">
       <c r="A336" t="inlineStr">
         <is>
-          <t>rider.bum12</t>
+          <t>eet103</t>
         </is>
       </c>
       <c r="B336" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="337">
       <c r="A337" t="inlineStr">
         <is>
-          <t>sreekanb</t>
+          <t>marthmallo</t>
         </is>
       </c>
       <c r="B337" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="338">
       <c r="A338" t="inlineStr">
         <is>
-          <t>cole_rybak</t>
+          <t>niroopgunupati</t>
         </is>
       </c>
       <c r="B338" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="339">
       <c r="A339" t="inlineStr">
         <is>
-          <t>nikola_whitton</t>
+          <t>jenmennj</t>
         </is>
       </c>
       <c r="B339" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="340">
       <c r="A340" t="inlineStr">
         <is>
-          <t>bianca.zufriategui</t>
+          <t>roolalenska</t>
         </is>
       </c>
       <c r="B340" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="341">
       <c r="A341" t="inlineStr">
         <is>
-          <t>michael_urgo</t>
+          <t>cskl2016</t>
         </is>
       </c>
       <c r="B341" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="342">
       <c r="A342" t="inlineStr">
         <is>
-          <t>declanckirk</t>
+          <t>stephanie_p1125</t>
         </is>
       </c>
       <c r="B342" t="b">
@@ -3858,7 +3858,7 @@
     <row r="343">
       <c r="A343" t="inlineStr">
         <is>
-          <t>alliepechulis11</t>
+          <t>sar.schu</t>
         </is>
       </c>
       <c r="B343" t="b">
@@ -3868,7 +3868,7 @@
     <row r="344">
       <c r="A344" t="inlineStr">
         <is>
-          <t>sophie.chrisom</t>
+          <t>semacarmichael</t>
         </is>
       </c>
       <c r="B344" t="b">
@@ -3878,7 +3878,7 @@
     <row r="345">
       <c r="A345" t="inlineStr">
         <is>
-          <t>tyler__hebert</t>
+          <t>shackelford.lisa</t>
         </is>
       </c>
       <c r="B345" t="b">
@@ -3888,7 +3888,7 @@
     <row r="346">
       <c r="A346" t="inlineStr">
         <is>
-          <t>fred_derf2</t>
+          <t>adagdur</t>
         </is>
       </c>
       <c r="B346" t="b">
@@ -3898,7 +3898,7 @@
     <row r="347">
       <c r="A347" t="inlineStr">
         <is>
-          <t>mamacrizm</t>
+          <t>christielbee</t>
         </is>
       </c>
       <c r="B347" t="b">
@@ -3908,7 +3908,7 @@
     <row r="348">
       <c r="A348" t="inlineStr">
         <is>
-          <t>changhsianghuo</t>
+          <t>khigg216</t>
         </is>
       </c>
       <c r="B348" t="b">
@@ -3918,7 +3918,7 @@
     <row r="349">
       <c r="A349" t="inlineStr">
         <is>
-          <t>spencerjchang</t>
+          <t>cscirica</t>
         </is>
       </c>
       <c r="B349" t="b">
@@ -3928,7 +3928,7 @@
     <row r="350">
       <c r="A350" t="inlineStr">
         <is>
-          <t>ttgal17</t>
+          <t>karen_mazzcan</t>
         </is>
       </c>
       <c r="B350" t="b">
@@ -3938,7 +3938,7 @@
     <row r="351">
       <c r="A351" t="inlineStr">
         <is>
-          <t>liam.tierney21</t>
+          <t>ryan.goldstein91</t>
         </is>
       </c>
       <c r="B351" t="b">
@@ -3948,7 +3948,7 @@
     <row r="352">
       <c r="A352" t="inlineStr">
         <is>
-          <t>mary_hauck26</t>
+          <t>andrewmmitchell</t>
         </is>
       </c>
       <c r="B352" t="b">
@@ -3958,7 +3958,7 @@
     <row r="353">
       <c r="A353" t="inlineStr">
         <is>
-          <t>esu_2028</t>
+          <t>rawrpari</t>
         </is>
       </c>
       <c r="B353" t="b">
@@ -3968,7 +3968,7 @@
     <row r="354">
       <c r="A354" t="inlineStr">
         <is>
-          <t>timothy.the.don</t>
+          <t>fiona_smith8</t>
         </is>
       </c>
       <c r="B354" t="b">
@@ -3978,7 +3978,7 @@
     <row r="355">
       <c r="A355" t="inlineStr">
         <is>
-          <t>thebestofgabbysheth</t>
+          <t>sepehr.n.f.w.y.a</t>
         </is>
       </c>
       <c r="B355" t="b">
@@ -3988,7 +3988,7 @@
     <row r="356">
       <c r="A356" t="inlineStr">
         <is>
-          <t>abbajabir7</t>
+          <t>itillwoman2</t>
         </is>
       </c>
       <c r="B356" t="b">
@@ -3998,7 +3998,7 @@
     <row r="357">
       <c r="A357" t="inlineStr">
         <is>
-          <t>mayalaydon</t>
+          <t>elizabethd729</t>
         </is>
       </c>
       <c r="B357" t="b">
@@ -4008,7 +4008,7 @@
     <row r="358">
       <c r="A358" t="inlineStr">
         <is>
-          <t>cdk41405</t>
+          <t>sueferg9862</t>
         </is>
       </c>
       <c r="B358" t="b">
@@ -4018,7 +4018,7 @@
     <row r="359">
       <c r="A359" t="inlineStr">
         <is>
-          <t>maximo.zafft</t>
+          <t>amswynn</t>
         </is>
       </c>
       <c r="B359" t="b">
@@ -4028,7 +4028,7 @@
     <row r="360">
       <c r="A360" t="inlineStr">
         <is>
-          <t>gen68boston</t>
+          <t>samjud56</t>
         </is>
       </c>
       <c r="B360" t="b">
@@ -4038,7 +4038,7 @@
     <row r="361">
       <c r="A361" t="inlineStr">
         <is>
-          <t>erwelch77</t>
+          <t>jcschaffer</t>
         </is>
       </c>
       <c r="B361" t="b">
@@ -4048,7 +4048,7 @@
     <row r="362">
       <c r="A362" t="inlineStr">
         <is>
-          <t>chrisr_1337</t>
+          <t>giap.05</t>
         </is>
       </c>
       <c r="B362" t="b">
@@ -4058,7 +4058,7 @@
     <row r="363">
       <c r="A363" t="inlineStr">
         <is>
-          <t>leonesfinest</t>
+          <t>lahavard4</t>
         </is>
       </c>
       <c r="B363" t="b">
@@ -4068,7 +4068,7 @@
     <row r="364">
       <c r="A364" t="inlineStr">
         <is>
-          <t>jacoblabollita</t>
+          <t>tdalton77</t>
         </is>
       </c>
       <c r="B364" t="b">
@@ -4078,7 +4078,7 @@
     <row r="365">
       <c r="A365" t="inlineStr">
         <is>
-          <t>leogosdanian</t>
+          <t>onukpa001</t>
         </is>
       </c>
       <c r="B365" t="b">
@@ -4088,7 +4088,7 @@
     <row r="366">
       <c r="A366" t="inlineStr">
         <is>
-          <t>calvnle</t>
+          <t>iabhi_s</t>
         </is>
       </c>
       <c r="B366" t="b">
@@ -4098,7 +4098,7 @@
     <row r="367">
       <c r="A367" t="inlineStr">
         <is>
-          <t>evannbakerr</t>
+          <t>fifthward7</t>
         </is>
       </c>
       <c r="B367" t="b">
@@ -4108,7 +4108,7 @@
     <row r="368">
       <c r="A368" t="inlineStr">
         <is>
-          <t>deviin.kaliinskyy</t>
+          <t>soz.mahmoud</t>
         </is>
       </c>
       <c r="B368" t="b">
@@ -4118,7 +4118,7 @@
     <row r="369">
       <c r="A369" t="inlineStr">
         <is>
-          <t>mia__0802</t>
+          <t>kerringtonsophia</t>
         </is>
       </c>
       <c r="B369" t="b">
@@ -4128,7 +4128,7 @@
     <row r="370">
       <c r="A370" t="inlineStr">
         <is>
-          <t>chloechampani</t>
+          <t>ryanjstapleton</t>
         </is>
       </c>
       <c r="B370" t="b">
@@ -4138,7 +4138,7 @@
     <row r="371">
       <c r="A371" t="inlineStr">
         <is>
-          <t>bhardwaj_neetu18</t>
+          <t>nhyora24</t>
         </is>
       </c>
       <c r="B371" t="b">
@@ -4148,7 +4148,7 @@
     <row r="372">
       <c r="A372" t="inlineStr">
         <is>
-          <t>mcarboneee</t>
+          <t>sandybryant2</t>
         </is>
       </c>
       <c r="B372" t="b">
@@ -4158,7 +4158,7 @@
     <row r="373">
       <c r="A373" t="inlineStr">
         <is>
-          <t>aarminisikalannn_77</t>
+          <t>crossen.vicki</t>
         </is>
       </c>
       <c r="B373" t="b">
@@ -4168,7 +4168,7 @@
     <row r="374">
       <c r="A374" t="inlineStr">
         <is>
-          <t>pelinegriboyun</t>
+          <t>king_level30</t>
         </is>
       </c>
       <c r="B374" t="b">
@@ -4178,7 +4178,7 @@
     <row r="375">
       <c r="A375" t="inlineStr">
         <is>
-          <t>jordan_deli_shawarma_rabi</t>
+          <t>eed.umk</t>
         </is>
       </c>
       <c r="B375" t="b">
@@ -4188,7 +4188,7 @@
     <row r="376">
       <c r="A376" t="inlineStr">
         <is>
-          <t>jilliankeane46</t>
+          <t>vilmi05</t>
         </is>
       </c>
       <c r="B376" t="b">
@@ -4198,7 +4198,7 @@
     <row r="377">
       <c r="A377" t="inlineStr">
         <is>
-          <t>kendalldesrosiers_</t>
+          <t>ravneet2094</t>
         </is>
       </c>
       <c r="B377" t="b">
@@ -4208,7 +4208,7 @@
     <row r="378">
       <c r="A378" t="inlineStr">
         <is>
-          <t>lindsey_liman</t>
+          <t>mdjuweljaman</t>
         </is>
       </c>
       <c r="B378" t="b">
@@ -4218,7 +4218,7 @@
     <row r="379">
       <c r="A379" t="inlineStr">
         <is>
-          <t>jackmerrigan01</t>
+          <t>k_co26</t>
         </is>
       </c>
       <c r="B379" t="b">
@@ -4228,7 +4228,7 @@
     <row r="380">
       <c r="A380" t="inlineStr">
         <is>
-          <t>sasha.v.cyshke_</t>
+          <t>jvuono001</t>
         </is>
       </c>
       <c r="B380" t="b">
@@ -4238,7 +4238,7 @@
     <row r="381">
       <c r="A381" t="inlineStr">
         <is>
-          <t>falafel_taco_greenwich</t>
+          <t>andrea_derby</t>
         </is>
       </c>
       <c r="B381" t="b">
@@ -4248,7 +4248,7 @@
     <row r="382">
       <c r="A382" t="inlineStr">
         <is>
-          <t>renacarness</t>
+          <t>susanneseely</t>
         </is>
       </c>
       <c r="B382" t="b">
@@ -4258,7 +4258,7 @@
     <row r="383">
       <c r="A383" t="inlineStr">
         <is>
-          <t>isabellefishlin_</t>
+          <t>hheickal</t>
         </is>
       </c>
       <c r="B383" t="b">
@@ -4268,7 +4268,7 @@
     <row r="384">
       <c r="A384" t="inlineStr">
         <is>
-          <t>kiara.scardina4</t>
+          <t>krisjet123</t>
         </is>
       </c>
       <c r="B384" t="b">
@@ -4278,7 +4278,7 @@
     <row r="385">
       <c r="A385" t="inlineStr">
         <is>
-          <t>bloomiegirl333</t>
+          <t>elianartascon</t>
         </is>
       </c>
       <c r="B385" t="b">
@@ -4288,7 +4288,7 @@
     <row r="386">
       <c r="A386" t="inlineStr">
         <is>
-          <t>buntershots</t>
+          <t>chris_t_ellis</t>
         </is>
       </c>
       <c r="B386" t="b">
@@ -4298,610 +4298,10 @@
     <row r="387">
       <c r="A387" t="inlineStr">
         <is>
-          <t>owendinklage</t>
+          <t>lindsayanderson5</t>
         </is>
       </c>
       <c r="B387" t="b">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="388">
-      <c r="A388" t="inlineStr">
-        <is>
-          <t>ryanferrariii</t>
-        </is>
-      </c>
-      <c r="B388" t="b">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="389">
-      <c r="A389" t="inlineStr">
-        <is>
-          <t>blacksupernova_13</t>
-        </is>
-      </c>
-      <c r="B389" t="b">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="390">
-      <c r="A390" t="inlineStr">
-        <is>
-          <t>sophia_radzevich</t>
-        </is>
-      </c>
-      <c r="B390" t="b">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="391">
-      <c r="A391" t="inlineStr">
-        <is>
-          <t>_hannah.bannish_</t>
-        </is>
-      </c>
-      <c r="B391" t="b">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="392">
-      <c r="A392" t="inlineStr">
-        <is>
-          <t>isabellamarques10</t>
-        </is>
-      </c>
-      <c r="B392" t="b">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="393">
-      <c r="A393" t="inlineStr">
-        <is>
-          <t>piosin_punch</t>
-        </is>
-      </c>
-      <c r="B393" t="b">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="394">
-      <c r="A394" t="inlineStr">
-        <is>
-          <t>bhurley104</t>
-        </is>
-      </c>
-      <c r="B394" t="b">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="395">
-      <c r="A395" t="inlineStr">
-        <is>
-          <t>bach.gng</t>
-        </is>
-      </c>
-      <c r="B395" t="b">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="396">
-      <c r="A396" t="inlineStr">
-        <is>
-          <t>b_is_yada</t>
-        </is>
-      </c>
-      <c r="B396" t="b">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="397">
-      <c r="A397" t="inlineStr">
-        <is>
-          <t>lillyheartquist</t>
-        </is>
-      </c>
-      <c r="B397" t="b">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="398">
-      <c r="A398" t="inlineStr">
-        <is>
-          <t>avahopps</t>
-        </is>
-      </c>
-      <c r="B398" t="b">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="399">
-      <c r="A399" t="inlineStr">
-        <is>
-          <t>jaclynbader</t>
-        </is>
-      </c>
-      <c r="B399" t="b">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="400">
-      <c r="A400" t="inlineStr">
-        <is>
-          <t>eve.reese_</t>
-        </is>
-      </c>
-      <c r="B400" t="b">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="401">
-      <c r="A401" t="inlineStr">
-        <is>
-          <t>louellaflanagan</t>
-        </is>
-      </c>
-      <c r="B401" t="b">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="402">
-      <c r="A402" t="inlineStr">
-        <is>
-          <t>abrreto</t>
-        </is>
-      </c>
-      <c r="B402" t="b">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="403">
-      <c r="A403" t="inlineStr">
-        <is>
-          <t>parker.burnsss</t>
-        </is>
-      </c>
-      <c r="B403" t="b">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="404">
-      <c r="A404" t="inlineStr">
-        <is>
-          <t>astridmarie67</t>
-        </is>
-      </c>
-      <c r="B404" t="b">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="405">
-      <c r="A405" t="inlineStr">
-        <is>
-          <t>cmh_m</t>
-        </is>
-      </c>
-      <c r="B405" t="b">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="406">
-      <c r="A406" t="inlineStr">
-        <is>
-          <t>clovis_507</t>
-        </is>
-      </c>
-      <c r="B406" t="b">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="407">
-      <c r="A407" t="inlineStr">
-        <is>
-          <t>emilyymckeonn</t>
-        </is>
-      </c>
-      <c r="B407" t="b">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="408">
-      <c r="A408" t="inlineStr">
-        <is>
-          <t>brielleensign</t>
-        </is>
-      </c>
-      <c r="B408" t="b">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="409">
-      <c r="A409" t="inlineStr">
-        <is>
-          <t>ackefalas</t>
-        </is>
-      </c>
-      <c r="B409" t="b">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="410">
-      <c r="A410" t="inlineStr">
-        <is>
-          <t>_pmill_</t>
-        </is>
-      </c>
-      <c r="B410" t="b">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="411">
-      <c r="A411" t="inlineStr">
-        <is>
-          <t>eileen.fraga</t>
-        </is>
-      </c>
-      <c r="B411" t="b">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="412">
-      <c r="A412" t="inlineStr">
-        <is>
-          <t>trin.l89</t>
-        </is>
-      </c>
-      <c r="B412" t="b">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="413">
-      <c r="A413" t="inlineStr">
-        <is>
-          <t>brendan._.connolly</t>
-        </is>
-      </c>
-      <c r="B413" t="b">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="414">
-      <c r="A414" t="inlineStr">
-        <is>
-          <t>manoharan9054</t>
-        </is>
-      </c>
-      <c r="B414" t="b">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="415">
-      <c r="A415" t="inlineStr">
-        <is>
-          <t>stevilynnfox</t>
-        </is>
-      </c>
-      <c r="B415" t="b">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="416">
-      <c r="A416" t="inlineStr">
-        <is>
-          <t>khushboo_pandyaaa</t>
-        </is>
-      </c>
-      <c r="B416" t="b">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="417">
-      <c r="A417" t="inlineStr">
-        <is>
-          <t>d_nikitas_</t>
-        </is>
-      </c>
-      <c r="B417" t="b">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="418">
-      <c r="A418" t="inlineStr">
-        <is>
-          <t>kateharmon3</t>
-        </is>
-      </c>
-      <c r="B418" t="b">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="419">
-      <c r="A419" t="inlineStr">
-        <is>
-          <t>bree_schweetz</t>
-        </is>
-      </c>
-      <c r="B419" t="b">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="420">
-      <c r="A420" t="inlineStr">
-        <is>
-          <t>_mattjohnsonn_</t>
-        </is>
-      </c>
-      <c r="B420" t="b">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="421">
-      <c r="A421" t="inlineStr">
-        <is>
-          <t>eva.gannon</t>
-        </is>
-      </c>
-      <c r="B421" t="b">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="422">
-      <c r="A422" t="inlineStr">
-        <is>
-          <t>neuropathydoc</t>
-        </is>
-      </c>
-      <c r="B422" t="b">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="423">
-      <c r="A423" t="inlineStr">
-        <is>
-          <t>sam.r0622</t>
-        </is>
-      </c>
-      <c r="B423" t="b">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="424">
-      <c r="A424" t="inlineStr">
-        <is>
-          <t>_selina.y</t>
-        </is>
-      </c>
-      <c r="B424" t="b">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="425">
-      <c r="A425" t="inlineStr">
-        <is>
-          <t>marie_washington1</t>
-        </is>
-      </c>
-      <c r="B425" t="b">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="426">
-      <c r="A426" t="inlineStr">
-        <is>
-          <t>izzylewis_</t>
-        </is>
-      </c>
-      <c r="B426" t="b">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="427">
-      <c r="A427" t="inlineStr">
-        <is>
-          <t>todaypsychotherapy</t>
-        </is>
-      </c>
-      <c r="B427" t="b">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="428">
-      <c r="A428" t="inlineStr">
-        <is>
-          <t>_paul_macdonald</t>
-        </is>
-      </c>
-      <c r="B428" t="b">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="429">
-      <c r="A429" t="inlineStr">
-        <is>
-          <t>_sams0ng</t>
-        </is>
-      </c>
-      <c r="B429" t="b">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="430">
-      <c r="A430" t="inlineStr">
-        <is>
-          <t>fionaa.stone</t>
-        </is>
-      </c>
-      <c r="B430" t="b">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="431">
-      <c r="A431" t="inlineStr">
-        <is>
-          <t>juliamirv</t>
-        </is>
-      </c>
-      <c r="B431" t="b">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="432">
-      <c r="A432" t="inlineStr">
-        <is>
-          <t>kay.putelis</t>
-        </is>
-      </c>
-      <c r="B432" t="b">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="433">
-      <c r="A433" t="inlineStr">
-        <is>
-          <t>gurveersingh5635</t>
-        </is>
-      </c>
-      <c r="B433" t="b">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="434">
-      <c r="A434" t="inlineStr">
-        <is>
-          <t>sue.moriarty.56</t>
-        </is>
-      </c>
-      <c r="B434" t="b">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="435">
-      <c r="A435" t="inlineStr">
-        <is>
-          <t>lizsanger</t>
-        </is>
-      </c>
-      <c r="B435" t="b">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="436">
-      <c r="A436" t="inlineStr">
-        <is>
-          <t>sophiarouk_</t>
-        </is>
-      </c>
-      <c r="B436" t="b">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="437">
-      <c r="A437" t="inlineStr">
-        <is>
-          <t>suhani.shridhar</t>
-        </is>
-      </c>
-      <c r="B437" t="b">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="438">
-      <c r="A438" t="inlineStr">
-        <is>
-          <t>eli__rab</t>
-        </is>
-      </c>
-      <c r="B438" t="b">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="439">
-      <c r="A439" t="inlineStr">
-        <is>
-          <t>vijay09_kumar2005</t>
-        </is>
-      </c>
-      <c r="B439" t="b">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="440">
-      <c r="A440" t="inlineStr">
-        <is>
-          <t>eamongodzik</t>
-        </is>
-      </c>
-      <c r="B440" t="b">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="441">
-      <c r="A441" t="inlineStr">
-        <is>
-          <t>jhoselin52</t>
-        </is>
-      </c>
-      <c r="B441" t="b">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="442">
-      <c r="A442" t="inlineStr">
-        <is>
-          <t>gracie_leary</t>
-        </is>
-      </c>
-      <c r="B442" t="b">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="443">
-      <c r="A443" t="inlineStr">
-        <is>
-          <t>kmoitoso6</t>
-        </is>
-      </c>
-      <c r="B443" t="b">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="444">
-      <c r="A444" t="inlineStr">
-        <is>
-          <t>charlievaughan_</t>
-        </is>
-      </c>
-      <c r="B444" t="b">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="445">
-      <c r="A445" t="inlineStr">
-        <is>
-          <t>thedramadepartmentny</t>
-        </is>
-      </c>
-      <c r="B445" t="b">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="446">
-      <c r="A446" t="inlineStr">
-        <is>
-          <t>geffenw</t>
-        </is>
-      </c>
-      <c r="B446" t="b">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="447">
-      <c r="A447" t="inlineStr">
-        <is>
-          <t>_cinthya.09</t>
-        </is>
-      </c>
-      <c r="B447" t="b">
         <v>0</v>
       </c>
     </row>
